--- a/Yuhang_Fu/Z-score/Z_score_All.xlsx
+++ b/Yuhang_Fu/Z-score/Z_score_All.xlsx
@@ -515,28 +515,28 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.09119927061210421</v>
+        <v>-0.3503679880094964</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2315394141736267</v>
+        <v>-0.6817253031442242</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.5312758394423285</v>
+        <v>-0.7825348293132602</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.4339723098374709</v>
+        <v>-0.4158261581133187</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2604825884350893</v>
+        <v>-0.7206180522567107</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.9195961048255622</v>
+        <v>-1.295346799651229</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3437991731908537</v>
+        <v>0.2886848025315992</v>
       </c>
     </row>
     <row r="3">
@@ -559,28 +559,28 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-0.2531414239098945</v>
+        <v>-0.6604345061291368</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.10949989924596</v>
+        <v>-1.305586830107502</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.966766340168494</v>
+        <v>-2.199929451024094</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07858710836225778</v>
+        <v>-0.3846922750161304</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K3" t="n">
-        <v>-1.870997468316615</v>
+        <v>-2.276969853013291</v>
       </c>
       <c r="L3" t="n">
-        <v>-2.884076146404407</v>
+        <v>-3.053359054762546</v>
       </c>
     </row>
     <row r="4">
@@ -603,28 +603,28 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.2901516718914812</v>
+        <v>-0.1712184442070375</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.5055505552075045</v>
+        <v>-0.9521617870361478</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8233277163897751</v>
+        <v>0.4428173298507782</v>
       </c>
       <c r="H4" t="n">
-        <v>1.29042097428493</v>
+        <v>1.591290046411303</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7197370804881503</v>
+        <v>0.250512831038785</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K4" t="n">
-        <v>1.248176347689566</v>
+        <v>0.9412859144578446</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5265090969415289</v>
+        <v>0.4778570963407018</v>
       </c>
     </row>
     <row r="5">
@@ -647,28 +647,28 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.4559453396242954</v>
+        <v>-0.02192715770498846</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.5968876022187971</v>
+        <v>-1.042307281666789</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5131007629558042</v>
+        <v>0.162191115941508</v>
       </c>
       <c r="H5" t="n">
-        <v>1.034955302563093</v>
+        <v>1.293939497592841</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1587308548779944</v>
+        <v>-0.305291636759266</v>
       </c>
       <c r="J5" t="n">
-        <v>5.052694408205099</v>
+        <v>3.795012906329986</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9476402160447285</v>
+        <v>0.631203118162165</v>
       </c>
       <c r="L5" t="n">
-        <v>1.561865331528688</v>
+        <v>1.549833427925616</v>
       </c>
     </row>
     <row r="6">
@@ -691,28 +691,28 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-1.056603044461225</v>
+        <v>-1.383923048408298</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.330394483890044</v>
+        <v>-1.505404448388448</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.3701058919070117</v>
+        <v>-0.3414885209087031</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.024930632123653</v>
+        <v>-1.47797798639911</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.7524339961000314</v>
+        <v>-1.122874711770792</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3437991731908537</v>
+        <v>0.2886848025315992</v>
       </c>
     </row>
     <row r="7">
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-0.06439170987561374</v>
+        <v>-0.4904721184191117</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.4142135081962119</v>
+        <v>-0.8620162924055066</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.6758318543932363</v>
+        <v>-0.9132978295118207</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.3062394739765523</v>
+        <v>-0.2671508837040874</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.4053578225212284</v>
+        <v>-0.8641499752595041</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K7" t="n">
-        <v>-1.26814688472135</v>
+        <v>-1.654969450976395</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1610892494401786</v>
+        <v>0.09951250872249666</v>
       </c>
     </row>
     <row r="8">
@@ -779,28 +779,28 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-1.936584819350777</v>
+        <v>-2.176315261380712</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.838776873548855</v>
+        <v>-1.965278819873273</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.6255715636288488</v>
+        <v>-0.6388390697271655</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.76780151328875</v>
+        <v>-2.2139608256262</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K8" t="n">
-        <v>-1.62203262553391</v>
+        <v>-2.020096530638172</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.9351702930638723</v>
+        <v>-1.035521254132119</v>
       </c>
     </row>
     <row r="9">
@@ -823,28 +823,28 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-1.186687306836202</v>
+        <v>-1.501059288586828</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.6882246492300897</v>
+        <v>-1.13245277629743</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.6498442561998148</v>
+        <v>-0.8897898744199447</v>
       </c>
       <c r="H9" t="n">
-        <v>0.07695903360620339</v>
+        <v>0.1788749395236064</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.6581188692247052</v>
+        <v>-1.114567372838846</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.5425922000403226</v>
+        <v>-0.9063671971974768</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.3261372138949552</v>
+        <v>-0.4049469414351101</v>
       </c>
     </row>
     <row r="10">
@@ -867,28 +867,28 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.5503201966414357</v>
+        <v>0.06305403615002408</v>
       </c>
       <c r="F10" t="n">
-        <v>1.321190385018347</v>
+        <v>0.8507481055766765</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3620478484565408</v>
+        <v>0.02555112696997855</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2685582873975814</v>
+        <v>0.4018878511374532</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5563671356676104</v>
+        <v>0.08865768382286905</v>
       </c>
       <c r="J10" t="n">
-        <v>2.081769514678371</v>
+        <v>1.328621539740285</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2220855313637012</v>
+        <v>-0.1173991356167537</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.9351702930638723</v>
+        <v>-1.035521254132119</v>
       </c>
     </row>
     <row r="11">
@@ -911,28 +911,28 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.2927023437027553</v>
+        <v>-0.1689216551839291</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1402023671623341</v>
+        <v>-0.5915798085135829</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5455852606975813</v>
+        <v>0.1915760598063531</v>
       </c>
       <c r="H11" t="n">
-        <v>1.992951571519983</v>
+        <v>2.409004055662075</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4361515158940055</v>
+        <v>-0.03044327356242759</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.1817923089610404</v>
+        <v>-0.550533787185201</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7680298651800624</v>
+        <v>0.4458873641629719</v>
       </c>
       <c r="L11" t="n">
-        <v>1.196445484027338</v>
+        <v>1.171488840307411</v>
       </c>
     </row>
     <row r="12">
@@ -955,28 +955,28 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-0.350066952738309</v>
+        <v>-0.7477124890072577</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.5150335905714399</v>
+        <v>-0.7678423573808377</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.5617051456983895</v>
+        <v>-0.5645014325225499</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.01080399352067918</v>
+        <v>-0.4732545253795561</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.1673666155606737</v>
+        <v>-0.5192224041892615</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.4479438297287386</v>
+        <v>-0.5310618039745119</v>
       </c>
     </row>
     <row r="13">
@@ -999,28 +999,28 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-0.06184103806433964</v>
+        <v>-0.4881753293960032</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2315394141736267</v>
+        <v>-0.6817253031442242</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1119172158448574</v>
+        <v>-0.2007129407893283</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.4978387277679302</v>
+        <v>-0.4901637953179343</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.5039962797713656</v>
+        <v>-0.9618738377294911</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.08378556119790838</v>
+        <v>-0.4329863602490429</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.996073600980764</v>
+        <v>-1.09857868540182</v>
       </c>
     </row>
     <row r="14">
@@ -1043,28 +1043,28 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-0.9469241565764401</v>
+        <v>-1.285161120414634</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1338087738715436</v>
+        <v>-0.3211433246216593</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.8626177164084545</v>
+        <v>-1.08226125673468</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.200369325002982</v>
+        <v>-1.307877804568706</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.8769729462484473</v>
+        <v>-1.331392192694129</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.04031969498357715</v>
+        <v>-0.4330865792523581</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.9942855576603739</v>
+        <v>-1.372408796363764</v>
       </c>
       <c r="L14" t="n">
-        <v>-1.239686832648331</v>
+        <v>-1.350808410480623</v>
       </c>
     </row>
     <row r="15">
@@ -1087,28 +1087,28 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.5426681812076135</v>
+        <v>0.05616366908069875</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G15" t="n">
-        <v>2.044744831480592</v>
+        <v>1.547691219168952</v>
       </c>
       <c r="H15" t="n">
-        <v>1.609753063937227</v>
+        <v>1.962978232434382</v>
       </c>
       <c r="I15" t="n">
-        <v>0.96016832003536</v>
+        <v>0.4887147458093783</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.1817923089610404</v>
+        <v>-0.550533787185201</v>
       </c>
       <c r="K15" t="n">
-        <v>2.240479078209206</v>
+        <v>1.965109585067248</v>
       </c>
       <c r="L15" t="n">
-        <v>2.597221566115848</v>
+        <v>2.621809759510531</v>
       </c>
     </row>
     <row r="16">
@@ -1131,28 +1131,28 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1.333376442702574</v>
+        <v>0.7681682662443173</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5904940089280066</v>
+        <v>0.1295841485315467</v>
       </c>
       <c r="G16" t="n">
-        <v>1.016610477953349</v>
+        <v>0.6176577458466063</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6517567949803371</v>
+        <v>0.8479136743651471</v>
       </c>
       <c r="I16" t="n">
-        <v>1.474937768809514</v>
+        <v>0.9987111530746229</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.04031969498357715</v>
+        <v>-0.4330865792523581</v>
       </c>
       <c r="K16" t="n">
-        <v>1.388663651831235</v>
+        <v>1.086235860655233</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.4479438297287386</v>
+        <v>-0.5310618039745119</v>
       </c>
     </row>
     <row r="17">
@@ -1175,28 +1175,28 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.02488180351897854</v>
+        <v>-0.410084502610316</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1338087738715436</v>
+        <v>-0.3211433246216593</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.4354465711040861</v>
+        <v>-0.6958492449119674</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.1785066381156338</v>
+        <v>-0.1184756092948562</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.3961104671540281</v>
+        <v>-0.8549883631529428</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K17" t="n">
-        <v>-1.159669346080314</v>
+        <v>-1.543046074798665</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.8742669851469806</v>
+        <v>-0.9724638228624178</v>
       </c>
     </row>
     <row r="18">
@@ -1219,28 +1219,28 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.08354725517828201</v>
+        <v>-0.3572583550788218</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G18" t="n">
-        <v>1.494132594757472</v>
+        <v>1.049616420659828</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3324247053280406</v>
+        <v>0.4762254883420689</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4176568051596047</v>
+        <v>-0.04876649777555015</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K18" t="n">
-        <v>1.75321931447734</v>
+        <v>1.462371796990229</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3437991731908537</v>
+        <v>0.2886848025315992</v>
       </c>
     </row>
     <row r="19">
@@ -1263,28 +1263,28 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>-0.821941237824011</v>
+        <v>-1.17261845828232</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.3228764611849193</v>
+        <v>-0.7718707977748654</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.2681514077339343</v>
+        <v>-0.5445167840080154</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.9449036532811453</v>
+        <v>-1.010527255750244</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.965078427789024</v>
+        <v>-2.409408550566174</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.5479271609570948</v>
+        <v>-0.9118716255340865</v>
       </c>
       <c r="L19" t="n">
-        <v>-1.483300064315898</v>
+        <v>-1.603038135559426</v>
       </c>
     </row>
     <row r="20">
@@ -1307,28 +1307,28 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.3896278725311698</v>
+        <v>-0.08164367230580809</v>
       </c>
       <c r="F20" t="n">
-        <v>2.691246090187736</v>
+        <v>2.202930525036295</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.04400837331567248</v>
+        <v>-0.3417606713405846</v>
       </c>
       <c r="H20" t="n">
-        <v>0.7794896308412558</v>
+        <v>0.9965889487743783</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3899147390580036</v>
+        <v>-0.07625133409523399</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8085159888812021</v>
+        <v>0.2715966683446991</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.1282435688376772</v>
+        <v>-0.4788565963874571</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1001859415232869</v>
+        <v>0.0364550774527958</v>
       </c>
     </row>
     <row r="21">
@@ -1351,28 +1351,28 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-0.6459448828461005</v>
+        <v>-1.014140015687838</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.3672291258463543</v>
+        <v>-0.6341408627957927</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.4339723098374709</v>
+        <v>-0.4158261581133187</v>
       </c>
       <c r="I21" t="n">
-        <v>-1.370165232499134</v>
+        <v>-1.820011505044064</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.964054112465331</v>
+        <v>-1.341217035789643</v>
       </c>
       <c r="L21" t="n">
-        <v>-1.117880216814547</v>
+        <v>-1.224693547941221</v>
       </c>
     </row>
     <row r="22">
@@ -1395,28 +1395,28 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.2289355484209037</v>
+        <v>-0.2263413807616403</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.5968876022187971</v>
+        <v>-1.042307281666789</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.5962448349258825</v>
+        <v>-0.8413047170429504</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.1146402201851745</v>
+        <v>-0.04413797209024053</v>
       </c>
       <c r="I22" t="n">
-        <v>0.8368702484726884</v>
+        <v>0.3665599177218946</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.08378556119790838</v>
+        <v>-0.4329863602490429</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.996073600980764</v>
+        <v>-1.09857868540182</v>
       </c>
     </row>
     <row r="23">
@@ -1439,28 +1439,28 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.05548986525426733</v>
+        <v>-0.3825230343330147</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G23" t="n">
-        <v>1.637064384821291</v>
+        <v>1.178910173665147</v>
       </c>
       <c r="H23" t="n">
-        <v>1.034955302563093</v>
+        <v>1.293939497592841</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3929971908470704</v>
+        <v>-0.07319746339304689</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K23" t="n">
-        <v>2.055533766427768</v>
+        <v>1.774289402731445</v>
       </c>
       <c r="L23" t="n">
-        <v>0.1610892494401786</v>
+        <v>0.09951250872249666</v>
       </c>
     </row>
     <row r="24">
@@ -1483,28 +1483,28 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.7110125207517018</v>
+        <v>0.2077517446058563</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6818310559392992</v>
+        <v>0.219729643162188</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6170511557294908</v>
+        <v>0.2562229363090122</v>
       </c>
       <c r="H24" t="n">
-        <v>1.226554556354471</v>
+        <v>1.516952409206688</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9324262539337589</v>
+        <v>0.4612299094896944</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1402827973065265</v>
+        <v>-0.2018003701114357</v>
       </c>
       <c r="L24" t="n">
-        <v>1.318252099861121</v>
+        <v>1.297603702846813</v>
       </c>
     </row>
     <row r="25">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1.142076056857019</v>
+        <v>0.5959090895111838</v>
       </c>
       <c r="F25" t="n">
-        <v>0.04247172686025093</v>
+        <v>-0.4112888192523005</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8119581421801532</v>
+        <v>0.4325325994980825</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1408254515366627</v>
+        <v>0.253212576728222</v>
       </c>
       <c r="I25" t="n">
-        <v>1.909563471067932</v>
+        <v>1.429306922083003</v>
       </c>
       <c r="J25" t="n">
-        <v>2.647659970588224</v>
+        <v>1.798410371471657</v>
       </c>
       <c r="K25" t="n">
-        <v>1.340649003580285</v>
+        <v>1.036696005625746</v>
       </c>
       <c r="L25" t="n">
-        <v>2.536318258198956</v>
+        <v>2.55875232824083</v>
       </c>
     </row>
     <row r="26">
@@ -1571,28 +1571,28 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>-0.5005565896034788</v>
+        <v>-0.8832230413706561</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2251458208828362</v>
+        <v>-0.2309978299910181</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.0537537226382056</v>
+        <v>-0.350576154500038</v>
       </c>
       <c r="H26" t="n">
-        <v>0.3324247053280406</v>
+        <v>0.4762254883420689</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.5286558940839</v>
+        <v>-0.9863048033469879</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.194041420144535</v>
+        <v>-0.54674454587231</v>
       </c>
       <c r="L26" t="n">
-        <v>0.282895865273962</v>
+        <v>0.2256273712618984</v>
       </c>
     </row>
     <row r="27">
@@ -1615,28 +1615,28 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>-1.245352758495506</v>
+        <v>-1.553885436118323</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G27" t="n">
-        <v>-1.101378774810516</v>
+        <v>-1.298240594141291</v>
       </c>
       <c r="H27" t="n">
-        <v>0.07695903360620339</v>
+        <v>0.1788749395236064</v>
       </c>
       <c r="I27" t="n">
-        <v>-1.209877739467661</v>
+        <v>-1.661210228530335</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.2989623181743895</v>
+        <v>-0.6549983031589673</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.4479438297287386</v>
+        <v>-0.5310618039745119</v>
       </c>
     </row>
     <row r="28">
@@ -1659,28 +1659,28 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-0.8091878787676406</v>
+        <v>-1.161134513166778</v>
       </c>
       <c r="F28" t="n">
-        <v>0.7731681029505918</v>
+        <v>0.3098751377928292</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.2178004362341797</v>
+        <v>-0.4989701210175055</v>
       </c>
       <c r="H28" t="n">
-        <v>1.482020228076308</v>
+        <v>1.81430295802515</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.2358229741225549</v>
+        <v>-0.6961870866392139</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.7079759884602626</v>
+        <v>-1.077004475632377</v>
       </c>
       <c r="L28" t="n">
-        <v>0.6483157127753123</v>
+        <v>0.6039719588801035</v>
       </c>
     </row>
     <row r="29">
@@ -1703,28 +1703,28 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>-0.7173636935617743</v>
+        <v>-1.078450108334874</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.5055505552075045</v>
+        <v>-0.9521617870361478</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.8301332186666774</v>
+        <v>-1.052876312869835</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.881037235350686</v>
+        <v>-0.9361896185456281</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.6519539656465716</v>
+        <v>-1.108459631434472</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K29" t="n">
-        <v>-1.467318758947514</v>
+        <v>-1.860468108876491</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.5697504455625221</v>
+        <v>-0.6571766665139136</v>
       </c>
     </row>
     <row r="30">
@@ -1747,28 +1747,28 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2.432715993361696</v>
+        <v>1.758084335204058</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.5055505552075045</v>
+        <v>-0.9521617870361478</v>
       </c>
       <c r="G30" t="n">
-        <v>1.745887452256244</v>
+        <v>1.277349735612378</v>
       </c>
       <c r="H30" t="n">
-        <v>0.843356048771715</v>
+        <v>1.070926585978994</v>
       </c>
       <c r="I30" t="n">
-        <v>1.743111074458325</v>
+        <v>1.2643979041649</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K30" t="n">
-        <v>1.049004473463401</v>
+        <v>0.7357872565577492</v>
       </c>
       <c r="L30" t="n">
-        <v>0.7701223286090958</v>
+        <v>0.7300868214195052</v>
       </c>
     </row>
     <row r="31">
@@ -1791,28 +1791,28 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.7543739415433609</v>
+        <v>0.2467971579986999</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2516005561344988</v>
+        <v>-0.07435768217049461</v>
       </c>
       <c r="H31" t="n">
-        <v>0.3962911232585</v>
+        <v>0.5505631255466845</v>
       </c>
       <c r="I31" t="n">
-        <v>0.8214579895273544</v>
+        <v>0.3512905642109591</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.4999125127061446</v>
+        <v>-0.8623317705045992</v>
       </c>
       <c r="L31" t="n">
-        <v>0.1001859415232869</v>
+        <v>0.0364550774527958</v>
       </c>
     </row>
     <row r="32">
@@ -1835,28 +1835,28 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.6293910227909317</v>
+        <v>0.134254495866386</v>
       </c>
       <c r="F32" t="n">
-        <v>1.503864479040933</v>
+        <v>1.031039094837959</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6885170507614004</v>
+        <v>0.3208698128116713</v>
       </c>
       <c r="H32" t="n">
-        <v>0.6517567949803371</v>
+        <v>0.8479136743651471</v>
       </c>
       <c r="I32" t="n">
-        <v>0.6735003036521484</v>
+        <v>0.2047047705059786</v>
       </c>
       <c r="J32" t="n">
-        <v>0.5255707609262757</v>
+        <v>0.0367022524790134</v>
       </c>
       <c r="K32" t="n">
-        <v>1.120137285687032</v>
+        <v>0.8091796343792118</v>
       </c>
       <c r="L32" t="n">
-        <v>0.1610892494401786</v>
+        <v>0.09951250872249666</v>
       </c>
     </row>
     <row r="33">
@@ -1879,28 +1879,28 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.01467911627388229</v>
+        <v>-0.4192716587027498</v>
       </c>
       <c r="F33" t="n">
-        <v>0.955842196973177</v>
+        <v>0.4901661270541116</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.7927760462636338</v>
+        <v>-1.019083627425263</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.2423730560460931</v>
+        <v>-0.1928132464994718</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.4577595029353639</v>
+        <v>-0.9160657771966847</v>
       </c>
       <c r="J33" t="n">
-        <v>0.2426255329713492</v>
+        <v>-0.1981921633866724</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.8217884880180708</v>
+        <v>-1.194432280146718</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.4479438297287386</v>
+        <v>-0.5310618039745119</v>
       </c>
     </row>
     <row r="34">
@@ -1923,28 +1923,28 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>-0.939272141142618</v>
+        <v>-1.278270753345309</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.6660865050707033</v>
+        <v>-0.9044823463523672</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.1146402201851745</v>
+        <v>-0.04413797209024053</v>
       </c>
       <c r="I34" t="n">
-        <v>-1.058837601803388</v>
+        <v>-1.511570564123168</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.1549183734215384</v>
+        <v>-0.5063787380705056</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.4479438297287386</v>
+        <v>-0.5310618039745119</v>
       </c>
     </row>
     <row r="35">
@@ -1967,28 +1967,28 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.8181407368252125</v>
+        <v>0.304216883576411</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.5968876022187971</v>
+        <v>-1.042307281666789</v>
       </c>
       <c r="G35" t="n">
-        <v>1.596458762644069</v>
+        <v>1.14217899383409</v>
       </c>
       <c r="H35" t="n">
-        <v>1.992951571519983</v>
+        <v>2.409004055662075</v>
       </c>
       <c r="I35" t="n">
-        <v>1.521174545645516</v>
+        <v>1.044519213607429</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K35" t="n">
-        <v>1.442013260998958</v>
+        <v>1.14128014402133</v>
       </c>
       <c r="L35" t="n">
-        <v>1.500962023611796</v>
+        <v>1.486775996655915</v>
       </c>
     </row>
     <row r="36">
@@ -2011,28 +2011,28 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.8206914086364866</v>
+        <v>0.3065136725995195</v>
       </c>
       <c r="F36" t="n">
-        <v>1.686538573063518</v>
+        <v>1.211330084099241</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.2275457855567129</v>
+        <v>-0.5077856041769591</v>
       </c>
       <c r="H36" t="n">
-        <v>0.7156232129107964</v>
+        <v>0.9222513115697627</v>
       </c>
       <c r="I36" t="n">
-        <v>0.9355087057228257</v>
+        <v>0.4642837801918815</v>
       </c>
       <c r="J36" t="n">
-        <v>1.798824286723445</v>
+        <v>1.093727123874599</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.2794007948128912</v>
+        <v>-0.6348153992580651</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.5697504455625221</v>
+        <v>-0.6571766665139136</v>
       </c>
     </row>
     <row r="37">
@@ -2055,28 +2055,28 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>-1.158629916912187</v>
+        <v>-1.475794609332636</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.5442696385390393</v>
+        <v>-0.7942888068591983</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.6894379815593081</v>
+        <v>-0.7131767069317813</v>
       </c>
       <c r="I37" t="n">
-        <v>-1.45030897901487</v>
+        <v>-1.899412143300929</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.3232649229385035</v>
+        <v>-0.6679809951180439</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.1193519673097234</v>
+        <v>-0.4696825491597743</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.5697504455625221</v>
+        <v>-0.6571766665139136</v>
       </c>
     </row>
     <row r="38">
@@ -2099,28 +2099,28 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.5528708684527098</v>
+        <v>0.06535082517313254</v>
       </c>
       <c r="F38" t="n">
-        <v>1.503864479040933</v>
+        <v>1.031039094837959</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9954955544211935</v>
+        <v>0.598557532334457</v>
       </c>
       <c r="H38" t="n">
-        <v>1.865218735659064</v>
+        <v>2.260328781252844</v>
       </c>
       <c r="I38" t="n">
-        <v>0.7967983752148201</v>
+        <v>0.3268595985934624</v>
       </c>
       <c r="J38" t="n">
-        <v>0.2426255329713492</v>
+        <v>-0.1981921633866724</v>
       </c>
       <c r="K38" t="n">
-        <v>0.9903199033789065</v>
+        <v>0.6752385448550425</v>
       </c>
       <c r="L38" t="n">
-        <v>0.1001859415232869</v>
+        <v>0.0364550774527958</v>
       </c>
     </row>
     <row r="39">
@@ -2143,28 +2143,28 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1.272160319231996</v>
+        <v>0.7130453296897147</v>
       </c>
       <c r="F39" t="n">
-        <v>2.143223808119981</v>
+        <v>1.662057557252447</v>
       </c>
       <c r="G39" t="n">
-        <v>2.814627427960709</v>
+        <v>2.24411438876578</v>
       </c>
       <c r="H39" t="n">
-        <v>0.07695903360620339</v>
+        <v>0.1788749395236064</v>
       </c>
       <c r="I39" t="n">
-        <v>1.551999063536184</v>
+        <v>1.0750579206293</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K39" t="n">
-        <v>3.332367745841928</v>
+        <v>3.091682584626699</v>
       </c>
       <c r="L39" t="n">
-        <v>0.8310256365259875</v>
+        <v>0.793144252689206</v>
       </c>
     </row>
     <row r="40">
@@ -2187,28 +2187,28 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.2161821893645333</v>
+        <v>-0.2378253258771825</v>
       </c>
       <c r="F40" t="n">
-        <v>1.229853338007055</v>
+        <v>0.7606026109460352</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4351379683755392</v>
+        <v>0.0916672506658799</v>
       </c>
       <c r="H40" t="n">
-        <v>0.7156232129107964</v>
+        <v>0.9222513115697627</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.2851422027476236</v>
+        <v>-0.7450490178742074</v>
       </c>
       <c r="J40" t="n">
-        <v>0.667043374903739</v>
+        <v>0.1541494604118563</v>
       </c>
       <c r="K40" t="n">
-        <v>0.6026460767601224</v>
+        <v>0.2752500857280713</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.14342729014428</v>
+        <v>-0.2157746476260076</v>
       </c>
     </row>
     <row r="41">
@@ -2231,28 +2231,28 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>-1.036197669971032</v>
+        <v>-1.36554873622343</v>
       </c>
       <c r="F41" t="n">
-        <v>0.3164828678941288</v>
+        <v>-0.1408523353603769</v>
       </c>
       <c r="G41" t="n">
-        <v>-1.59189469071135</v>
+        <v>-1.741953246500451</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.3062394739765523</v>
+        <v>-0.2671508837040874</v>
       </c>
       <c r="I41" t="n">
-        <v>0.2142149870811966</v>
+        <v>-0.2503219641198983</v>
       </c>
       <c r="J41" t="n">
-        <v>1.798824286723445</v>
+        <v>1.093727123874599</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.4287797004825144</v>
+        <v>-0.7889393926831366</v>
       </c>
       <c r="L41" t="n">
-        <v>0.2219925573570703</v>
+        <v>0.1625699399921975</v>
       </c>
     </row>
     <row r="42">
@@ -2275,28 +2275,28 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>-0.05418902263051745</v>
+        <v>-0.4812849623266779</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5163492127299819</v>
+        <v>0.1651296103279925</v>
       </c>
       <c r="H42" t="n">
-        <v>0.01309261567574409</v>
+        <v>0.1045373023189907</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1464010477217272</v>
+        <v>-0.3175071195680144</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K42" t="n">
-        <v>0.2701001796146515</v>
+        <v>-0.06785928058726641</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.2652339059780635</v>
+        <v>-0.3418895101654093</v>
       </c>
     </row>
     <row r="43">
@@ -2319,28 +2319,28 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.8946608911634345</v>
+        <v>0.3731205542696645</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1338087738715436</v>
+        <v>-0.3211433246216593</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7892189937609092</v>
+        <v>0.4119631387926909</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.4339723098374709</v>
+        <v>-0.4158261581133187</v>
       </c>
       <c r="I43" t="n">
-        <v>1.641390165419121</v>
+        <v>1.163620170992726</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.04031969498357715</v>
+        <v>-0.4330865792523581</v>
       </c>
       <c r="K43" t="n">
-        <v>1.337092362969103</v>
+        <v>1.033026386734673</v>
       </c>
       <c r="L43" t="n">
-        <v>0.03928263360639516</v>
+        <v>-0.02660235381690505</v>
       </c>
     </row>
     <row r="44">
@@ -2363,28 +2363,28 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1.800149384165727</v>
+        <v>1.188480657473163</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.7795616962413823</v>
+        <v>-1.222598270928071</v>
       </c>
       <c r="G44" t="n">
-        <v>1.039349626372593</v>
+        <v>0.6382272065519978</v>
       </c>
       <c r="H44" t="n">
-        <v>-5.160087236691459</v>
+        <v>-5.916811311254875</v>
       </c>
       <c r="I44" t="n">
-        <v>2.149994710615141</v>
+        <v>1.667508836853596</v>
       </c>
       <c r="J44" t="n">
-        <v>-0.3232649229385035</v>
+        <v>-0.6679809951180439</v>
       </c>
       <c r="K44" t="n">
-        <v>0.9672017394062268</v>
+        <v>0.6513860220630673</v>
       </c>
       <c r="L44" t="n">
-        <v>3.02354472153409</v>
+        <v>3.063211778398437</v>
       </c>
     </row>
     <row r="45">
@@ -2407,28 +2407,28 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>-0.5413673385838639</v>
+        <v>-0.9199716657403914</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G45" t="n">
-        <v>-1.021791755343162</v>
+        <v>-1.22624748167242</v>
       </c>
       <c r="H45" t="n">
-        <v>0.07695903360620339</v>
+        <v>0.1788749395236064</v>
       </c>
       <c r="I45" t="n">
-        <v>-1.043425342858054</v>
+        <v>-1.496301210612232</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K45" t="n">
-        <v>-1.45664883711397</v>
+        <v>-1.849459252203271</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.996073600980764</v>
+        <v>-1.09857868540182</v>
       </c>
     </row>
     <row r="46">
@@ -2451,28 +2451,28 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.5809282583767246</v>
+        <v>0.09061550442732545</v>
       </c>
       <c r="F46" t="n">
-        <v>1.686538573063518</v>
+        <v>1.211330084099241</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7664798453416652</v>
+        <v>0.3913936780872994</v>
       </c>
       <c r="H46" t="n">
-        <v>0.9710888846326337</v>
+        <v>1.219601860388225</v>
       </c>
       <c r="I46" t="n">
-        <v>0.6395933339724138</v>
+        <v>0.1711121927819206</v>
       </c>
       <c r="J46" t="n">
-        <v>1.515879058768518</v>
+        <v>0.8588327080089135</v>
       </c>
       <c r="K46" t="n">
-        <v>0.5635230300371258</v>
+        <v>0.2348842779262669</v>
       </c>
       <c r="L46" t="n">
-        <v>0.709219020692204</v>
+        <v>0.6670293901498043</v>
       </c>
     </row>
     <row r="47">
@@ -2495,28 +2495,28 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.4840027295483101</v>
+        <v>0.003337521549204462</v>
       </c>
       <c r="F47" t="n">
-        <v>1.321190385018347</v>
+        <v>0.8507481055766765</v>
       </c>
       <c r="G47" t="n">
-        <v>0.24997633124741</v>
+        <v>-0.07582692936373688</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.5617051456983895</v>
+        <v>-0.5645014325225499</v>
       </c>
       <c r="I47" t="n">
-        <v>0.1895553727686623</v>
+        <v>-0.2747529297373951</v>
       </c>
       <c r="J47" t="n">
-        <v>1.232933830813592</v>
+        <v>0.6239382921432278</v>
       </c>
       <c r="K47" t="n">
-        <v>0.1882974455574769</v>
+        <v>-0.1522605150819484</v>
       </c>
       <c r="L47" t="n">
-        <v>-0.8742669851469806</v>
+        <v>-0.9724638228624178</v>
       </c>
     </row>
     <row r="48">
@@ -2539,28 +2539,28 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.6548977409036724</v>
+        <v>0.1572223860974704</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.2315394141736267</v>
+        <v>-0.6817253031442242</v>
       </c>
       <c r="G48" t="n">
-        <v>0.3782900973274294</v>
+        <v>0.04024359890240107</v>
       </c>
       <c r="H48" t="n">
-        <v>-1.39196857879436</v>
+        <v>-1.530890716182553</v>
       </c>
       <c r="I48" t="n">
-        <v>0.8522825074180224</v>
+        <v>0.38182927123283</v>
       </c>
       <c r="J48" t="n">
-        <v>1.091461216836129</v>
+        <v>0.5064910842103849</v>
       </c>
       <c r="K48" t="n">
-        <v>0.2612085780866978</v>
+        <v>-0.07703332781494923</v>
       </c>
       <c r="L48" t="n">
-        <v>0.2219925573570703</v>
+        <v>0.1625699399921975</v>
       </c>
     </row>
     <row r="49">
@@ -2583,28 +2583,28 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.3564691389846069</v>
+        <v>-0.1115019296062179</v>
       </c>
       <c r="F49" t="n">
-        <v>0.6818310559392992</v>
+        <v>0.219729643162188</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3035757525213421</v>
+        <v>-0.02734177198674254</v>
       </c>
       <c r="H49" t="n">
-        <v>0.6517567949803371</v>
+        <v>0.8479136743651471</v>
       </c>
       <c r="I49" t="n">
-        <v>0.4269041605268051</v>
+        <v>-0.03960488566898887</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.1817923089610404</v>
+        <v>-0.550533787185201</v>
       </c>
       <c r="K49" t="n">
-        <v>0.3163365075600111</v>
+        <v>-0.02015423500331571</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.5088471376456304</v>
+        <v>-0.5941192352442127</v>
       </c>
     </row>
     <row r="50">
@@ -2627,28 +2627,28 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.3309624208718663</v>
+        <v>-0.1344698198373024</v>
       </c>
       <c r="F50" t="n">
-        <v>1.321190385018347</v>
+        <v>0.8507481055766765</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3279391258276749</v>
+        <v>-0.005303064088108754</v>
       </c>
       <c r="H50" t="n">
-        <v>-1.264235742933442</v>
+        <v>-1.382215441773322</v>
       </c>
       <c r="I50" t="n">
-        <v>0.1895553727686623</v>
+        <v>-0.2747529297373951</v>
       </c>
       <c r="J50" t="n">
-        <v>1.515879058768518</v>
+        <v>0.8588327080089135</v>
       </c>
       <c r="K50" t="n">
-        <v>0.2025240080022029</v>
+        <v>-0.1375820395176559</v>
       </c>
       <c r="L50" t="n">
-        <v>-1.117880216814547</v>
+        <v>-1.224693547941221</v>
       </c>
     </row>
     <row r="51">
@@ -2671,28 +2671,28 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-0.2888508292677314</v>
+        <v>-0.6925895524526551</v>
       </c>
       <c r="F51" t="n">
-        <v>0.04247172686025093</v>
+        <v>-0.4112888192523005</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.9080960132469424</v>
+        <v>-1.123400178145463</v>
       </c>
       <c r="H51" t="n">
-        <v>-0.6894379815593081</v>
+        <v>-0.7131767069317813</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.4546770511462971</v>
+        <v>-0.9130119064944976</v>
       </c>
       <c r="J51" t="n">
-        <v>1.091461216836129</v>
+        <v>0.5064910842103849</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.7168675899882163</v>
+        <v>-1.08617852286006</v>
       </c>
       <c r="L51" t="n">
-        <v>-0.4479438297287386</v>
+        <v>-0.5310618039745119</v>
       </c>
     </row>
     <row r="52">
@@ -2715,28 +2715,28 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>-0.350066952738309</v>
+        <v>-0.7477124890072577</v>
       </c>
       <c r="F52" t="n">
-        <v>1.321190385018347</v>
+        <v>0.8507481055766765</v>
       </c>
       <c r="G52" t="n">
-        <v>-1.304406885696622</v>
+        <v>-1.481896493296572</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.1146402201851745</v>
+        <v>-0.04413797209024053</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.2019160044428202</v>
+        <v>-0.6625945089151559</v>
       </c>
       <c r="J52" t="n">
-        <v>1.798824286723445</v>
+        <v>1.093727123874599</v>
       </c>
       <c r="K52" t="n">
-        <v>-1.214797275553627</v>
+        <v>-1.599925167610299</v>
       </c>
       <c r="L52" t="n">
-        <v>0.2219925573570703</v>
+        <v>0.1625699399921975</v>
       </c>
     </row>
     <row r="53">
@@ -2759,28 +2759,28 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.2748476410238369</v>
+        <v>-0.1849991783456882</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1338087738715436</v>
+        <v>-0.3211433246216593</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.2876421063790005</v>
+        <v>-0.5621477503269224</v>
       </c>
       <c r="H53" t="n">
-        <v>-0.6255715636288488</v>
+        <v>-0.6388390697271655</v>
       </c>
       <c r="I53" t="n">
-        <v>-0.02005134888787954</v>
+        <v>-0.4824161374861174</v>
       </c>
       <c r="J53" t="n">
-        <v>0.9499886028586654</v>
+        <v>0.3890438762775421</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.3505336070365213</v>
+        <v>-0.7082077770795278</v>
       </c>
       <c r="L53" t="n">
-        <v>-0.996073600980764</v>
+        <v>-1.09857868540182</v>
       </c>
     </row>
     <row r="54">
@@ -2803,28 +2803,28 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>-1.383089036304305</v>
+        <v>-1.677912043366179</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.2315394141736267</v>
+        <v>-0.6817253031442242</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.6449715815385482</v>
+        <v>-0.8853821328402179</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.7533043994897675</v>
+        <v>-0.7875143441363969</v>
       </c>
       <c r="I54" t="n">
-        <v>-1.296186389561531</v>
+        <v>-1.746718608191574</v>
       </c>
       <c r="J54" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.9658324327709218</v>
+        <v>-1.343051845235179</v>
       </c>
       <c r="L54" t="n">
-        <v>-0.9351702930638723</v>
+        <v>-1.035521254132119</v>
       </c>
     </row>
     <row r="55">
@@ -2847,28 +2847,28 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>-0.5388166667725899</v>
+        <v>-0.9176748767172829</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.5968876022187971</v>
+        <v>-1.042307281666789</v>
       </c>
       <c r="G55" t="n">
-        <v>-1.075391176617094</v>
+        <v>-1.274732639049415</v>
       </c>
       <c r="H55" t="n">
-        <v>0.4601575411889592</v>
+        <v>0.6249007627513001</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.2974720099038908</v>
+        <v>-0.7572645006829558</v>
       </c>
       <c r="J55" t="n">
-        <v>0.8085159888812021</v>
+        <v>0.2715966683446991</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.9942855576603739</v>
+        <v>-1.372408796363764</v>
       </c>
       <c r="L55" t="n">
-        <v>0.3437991731908537</v>
+        <v>0.2886848025315992</v>
       </c>
     </row>
     <row r="56">
@@ -2891,28 +2891,28 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1.037498512594782</v>
+        <v>0.5017407395637375</v>
       </c>
       <c r="F56" t="n">
-        <v>1.229853338007055</v>
+        <v>0.7606026109460352</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2451036565861434</v>
+        <v>-0.08023467094346362</v>
       </c>
       <c r="H56" t="n">
-        <v>0.3324247053280406</v>
+        <v>0.4762254883420689</v>
       </c>
       <c r="I56" t="n">
-        <v>1.28690820967644</v>
+        <v>0.8124250402412102</v>
       </c>
       <c r="J56" t="n">
-        <v>0.5255707609262757</v>
+        <v>0.0367022524790134</v>
       </c>
       <c r="K56" t="n">
-        <v>0.4746070147575882</v>
+        <v>0.1431438056494386</v>
       </c>
       <c r="L56" t="n">
-        <v>-0.02162067431049654</v>
+        <v>-0.08965978508660589</v>
       </c>
     </row>
     <row r="57">
@@ -2935,28 +2935,28 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1.65731176273438</v>
+        <v>1.05986047217909</v>
       </c>
       <c r="F57" t="n">
-        <v>1.503864479040933</v>
+        <v>1.031039094837959</v>
       </c>
       <c r="G57" t="n">
-        <v>1.947291338255262</v>
+        <v>1.459536387574417</v>
       </c>
       <c r="H57" t="n">
-        <v>1.865218735659064</v>
+        <v>2.260328781252844</v>
       </c>
       <c r="I57" t="n">
-        <v>1.243753884629505</v>
+        <v>0.7696708504105909</v>
       </c>
       <c r="J57" t="n">
-        <v>-0.1817923089610404</v>
+        <v>-0.550533787185201</v>
       </c>
       <c r="K57" t="n">
-        <v>1.957726149620276</v>
+        <v>1.673374883226934</v>
       </c>
       <c r="L57" t="n">
-        <v>1.500962023611796</v>
+        <v>1.486775996655915</v>
       </c>
     </row>
     <row r="58">
@@ -2979,28 +2979,28 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>-2.010554301877725</v>
+        <v>-2.242922143050857</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G58" t="n">
-        <v>-1.211826067132558</v>
+        <v>-1.398149403281764</v>
       </c>
       <c r="H58" t="n">
-        <v>0.01309261567574409</v>
+        <v>0.1045373023189907</v>
       </c>
       <c r="I58" t="n">
-        <v>-1.219125094834861</v>
+        <v>-1.670371840636897</v>
       </c>
       <c r="J58" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K58" t="n">
-        <v>-0.7257591915161701</v>
+        <v>-1.095352570087743</v>
       </c>
       <c r="L58" t="n">
-        <v>-0.5697504455625221</v>
+        <v>-0.6571766665139136</v>
       </c>
     </row>
     <row r="59">
@@ -3023,28 +3023,28 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.1804727840066964</v>
+        <v>-0.2699803722007008</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G59" t="n">
-        <v>0.6332934046003793</v>
+        <v>0.2709154082414347</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.1146402201851745</v>
+        <v>-0.04413797209024053</v>
       </c>
       <c r="I59" t="n">
-        <v>0.02002052436998874</v>
+        <v>-0.4427158183576852</v>
       </c>
       <c r="J59" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K59" t="n">
-        <v>0.9689800597118176</v>
+        <v>0.6532208315086038</v>
       </c>
       <c r="L59" t="n">
-        <v>0.9528322523597709</v>
+        <v>0.9192591152286077</v>
       </c>
     </row>
     <row r="60">
@@ -3067,28 +3067,28 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.5248134785286951</v>
+        <v>0.04008614591893962</v>
       </c>
       <c r="F60" t="n">
-        <v>1.138516290995762</v>
+        <v>0.6704571163153941</v>
       </c>
       <c r="G60" t="n">
-        <v>0.5390883611492259</v>
+        <v>0.1856990710333841</v>
       </c>
       <c r="H60" t="n">
-        <v>-1.583567832585738</v>
+        <v>-1.7539036277964</v>
       </c>
       <c r="I60" t="n">
-        <v>0.5471197803004101</v>
+        <v>0.07949607171630778</v>
       </c>
       <c r="J60" t="n">
-        <v>0.8085159888812021</v>
+        <v>0.2715966683446991</v>
       </c>
       <c r="K60" t="n">
-        <v>0.5973111158433502</v>
+        <v>0.2697456573914616</v>
       </c>
       <c r="L60" t="n">
-        <v>0.5874124048584206</v>
+        <v>0.5409145276104026</v>
       </c>
     </row>
     <row r="61">
@@ -3111,28 +3111,28 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>-1.791196526108155</v>
+        <v>-2.04539828706353</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.4142135081962119</v>
+        <v>-0.8620162924055066</v>
       </c>
       <c r="G61" t="n">
-        <v>-1.320649134567511</v>
+        <v>-1.496588965228995</v>
       </c>
       <c r="H61" t="n">
-        <v>-0.3062394739765523</v>
+        <v>-0.2671508837040874</v>
       </c>
       <c r="I61" t="n">
-        <v>-1.567442146999408</v>
+        <v>-2.015459229984038</v>
       </c>
       <c r="J61" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K61" t="n">
-        <v>-1.449535555891607</v>
+        <v>-1.842120014421125</v>
       </c>
       <c r="L61" t="n">
-        <v>-1.117880216814547</v>
+        <v>-1.224693547941221</v>
       </c>
     </row>
     <row r="62">
@@ -3155,28 +3155,28 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>-0.6842049600152115</v>
+        <v>-1.048591851034464</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.6882246492300897</v>
+        <v>-1.13245277629743</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.3834713747172428</v>
+        <v>-0.6488333347282152</v>
       </c>
       <c r="H62" t="n">
-        <v>0.6517567949803371</v>
+        <v>0.8479136743651471</v>
       </c>
       <c r="I62" t="n">
-        <v>-0.6057171888105698</v>
+        <v>-1.062651570901665</v>
       </c>
       <c r="J62" t="n">
-        <v>-0.3232649229385035</v>
+        <v>-0.6679809951180439</v>
       </c>
       <c r="K62" t="n">
-        <v>-0.5479271609570948</v>
+        <v>-0.9118716255340865</v>
       </c>
       <c r="L62" t="n">
-        <v>0.5265090969415289</v>
+        <v>0.4778570963407018</v>
       </c>
     </row>
     <row r="63">
@@ -3199,28 +3199,28 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.5095094476610508</v>
+        <v>0.02630541178028893</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.5968876022187971</v>
+        <v>-1.042307281666789</v>
       </c>
       <c r="G63" t="n">
-        <v>-1.05265202819785</v>
+        <v>-1.254163178344023</v>
       </c>
       <c r="H63" t="n">
-        <v>0.4601575411889592</v>
+        <v>0.6249007627513001</v>
       </c>
       <c r="I63" t="n">
-        <v>0.5902741053473451</v>
+        <v>0.1222502615469271</v>
       </c>
       <c r="J63" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K63" t="n">
-        <v>-1.476210360475468</v>
+        <v>-1.869642156104174</v>
       </c>
       <c r="L63" t="n">
-        <v>0.4656057890246372</v>
+        <v>0.4147996650710009</v>
       </c>
     </row>
     <row r="64">
@@ -3243,28 +3243,28 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.0631418806880895</v>
+        <v>-0.3756326672636893</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.7795616962413823</v>
+        <v>-1.222598270928071</v>
       </c>
       <c r="G64" t="n">
-        <v>1.070209899227281</v>
+        <v>0.6661429032236006</v>
       </c>
       <c r="H64" t="n">
-        <v>0.3324247053280406</v>
+        <v>0.4762254883420689</v>
       </c>
       <c r="I64" t="n">
-        <v>0.7320668876444175</v>
+        <v>0.2627283138475334</v>
       </c>
       <c r="J64" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K64" t="n">
-        <v>1.719431228671115</v>
+        <v>1.427510417525034</v>
       </c>
       <c r="L64" t="n">
-        <v>0.4656057890246372</v>
+        <v>0.4147996650710009</v>
       </c>
     </row>
     <row r="65">
@@ -3287,28 +3287,28 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-0.9112147512186033</v>
+        <v>-1.253006074091116</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.823636319118322</v>
+        <v>-1.046999324096866</v>
       </c>
       <c r="H65" t="n">
-        <v>-1.647434250516197</v>
+        <v>-1.828241265001016</v>
       </c>
       <c r="I65" t="n">
-        <v>-0.2173282633881541</v>
+        <v>-0.6778638624260914</v>
       </c>
       <c r="J65" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K65" t="n">
-        <v>-0.186928138922172</v>
+        <v>-0.5394053080901637</v>
       </c>
       <c r="L65" t="n">
-        <v>-0.8742669851469806</v>
+        <v>-0.9724638228624178</v>
       </c>
     </row>
     <row r="66">
@@ -3331,28 +3331,28 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.5758269147541764</v>
+        <v>0.08602192638110856</v>
       </c>
       <c r="F66" t="n">
-        <v>0.04247172686025093</v>
+        <v>-0.4112888192523005</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1898800104251224</v>
+        <v>-0.1301890755137002</v>
       </c>
       <c r="H66" t="n">
-        <v>-0.3701058919070117</v>
+        <v>-0.3414885209087031</v>
       </c>
       <c r="I66" t="n">
-        <v>0.8060457305820204</v>
+        <v>0.3360212107000236</v>
       </c>
       <c r="J66" t="n">
-        <v>2.789132584565687</v>
+        <v>1.915857579404499</v>
       </c>
       <c r="K66" t="n">
-        <v>0.7769214667080162</v>
+        <v>0.4550614113906548</v>
       </c>
       <c r="L66" t="n">
-        <v>1.683671947362471</v>
+        <v>1.675948290465018</v>
       </c>
     </row>
     <row r="67">
@@ -3375,28 +3375,28 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.32075973362677</v>
+        <v>-0.1436569759297362</v>
       </c>
       <c r="F67" t="n">
-        <v>1.138516290995762</v>
+        <v>0.6704571163153941</v>
       </c>
       <c r="G67" t="n">
-        <v>0.7843463190996427</v>
+        <v>0.4075553972129642</v>
       </c>
       <c r="H67" t="n">
-        <v>0.204691869467122</v>
+        <v>0.3275502139328376</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.01696889709881275</v>
+        <v>-0.4793622667839303</v>
       </c>
       <c r="J67" t="n">
-        <v>-0.3232649229385035</v>
+        <v>-0.6679809951180439</v>
       </c>
       <c r="K67" t="n">
-        <v>0.6897837717340694</v>
+        <v>0.365155748559363</v>
       </c>
       <c r="L67" t="n">
-        <v>0.2219925573570703</v>
+        <v>0.1625699399921975</v>
       </c>
     </row>
     <row r="68">
@@ -3419,28 +3419,28 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.4610466832468436</v>
+        <v>-0.01733357965877156</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.5055505552075045</v>
+        <v>-0.9521617870361478</v>
       </c>
       <c r="G68" t="n">
-        <v>0.7453649218095102</v>
+        <v>0.3722934645751501</v>
       </c>
       <c r="H68" t="n">
-        <v>4.164409781155598</v>
+        <v>4.936483720619007</v>
       </c>
       <c r="I68" t="n">
-        <v>0.5933565571364119</v>
+        <v>0.1253041322491142</v>
       </c>
       <c r="J68" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K68" t="n">
-        <v>1.169930254243573</v>
+        <v>0.8605542988542357</v>
       </c>
       <c r="L68" t="n">
-        <v>2.658124874032739</v>
+        <v>2.684867190780231</v>
       </c>
     </row>
     <row r="69">
@@ -3463,28 +3463,28 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.1294593477812152</v>
+        <v>-0.3159161526628697</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.4142135081962119</v>
+        <v>-0.8620162924055066</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.6595896055223479</v>
+        <v>-0.8986053575793982</v>
       </c>
       <c r="H69" t="n">
-        <v>-0.6894379815593081</v>
+        <v>-0.7131767069317813</v>
       </c>
       <c r="I69" t="n">
-        <v>0.03543278331532268</v>
+        <v>-0.4274464648467498</v>
       </c>
       <c r="J69" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K69" t="n">
-        <v>-0.9427142687982419</v>
+        <v>-1.319199322443204</v>
       </c>
       <c r="L69" t="n">
-        <v>-0.6915570613963055</v>
+        <v>-0.7832915290533152</v>
       </c>
     </row>
     <row r="70">
@@ -3507,28 +3507,28 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>-0.546468682206412</v>
+        <v>-0.9245652437866082</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G70" t="n">
-        <v>0.004718373296993109</v>
+        <v>-0.297683255543317</v>
       </c>
       <c r="H70" t="n">
-        <v>-0.2423730560460931</v>
+        <v>-0.1928132464994718</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.2758948473804232</v>
+        <v>-0.7358874057676462</v>
       </c>
       <c r="J70" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K70" t="n">
-        <v>-0.1460267718935847</v>
+        <v>-0.4972046908428227</v>
       </c>
       <c r="L70" t="n">
-        <v>-0.2652339059780635</v>
+        <v>-0.3418895101654093</v>
       </c>
     </row>
     <row r="71">
@@ -3551,28 +3551,28 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.06569255249936357</v>
+        <v>-0.3733358782405809</v>
       </c>
       <c r="F71" t="n">
-        <v>0.5904940089280066</v>
+        <v>0.1295841485315467</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.591372160264616</v>
+        <v>-0.8368969754632236</v>
       </c>
       <c r="H71" t="n">
-        <v>-0.2423730560460931</v>
+        <v>-0.1928132464994718</v>
       </c>
       <c r="I71" t="n">
-        <v>0.2049676317139962</v>
+        <v>-0.2594835762264596</v>
       </c>
       <c r="J71" t="n">
-        <v>1.232933830813592</v>
+        <v>0.6239382921432278</v>
       </c>
       <c r="K71" t="n">
-        <v>-0.5621537234018208</v>
+        <v>-0.926550101098379</v>
       </c>
       <c r="L71" t="n">
-        <v>-0.08252398222738828</v>
+        <v>-0.1527172163563068</v>
       </c>
     </row>
     <row r="72">
@@ -3595,28 +3595,28 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.3105570463816738</v>
+        <v>-0.15284413202217</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G72" t="n">
-        <v>1.598082987531158</v>
+        <v>1.143648241027333</v>
       </c>
       <c r="H72" t="n">
-        <v>-0.3701058919070117</v>
+        <v>-0.3414885209087031</v>
       </c>
       <c r="I72" t="n">
-        <v>0.4084094497924043</v>
+        <v>-0.05792810988211143</v>
       </c>
       <c r="J72" t="n">
-        <v>-0.3232649229385035</v>
+        <v>-0.6679809951180439</v>
       </c>
       <c r="K72" t="n">
-        <v>0.417700764978684</v>
+        <v>0.08442990339226852</v>
       </c>
       <c r="L72" t="n">
-        <v>-0.4479438297287386</v>
+        <v>-0.5310618039745119</v>
       </c>
     </row>
     <row r="73">
@@ -3639,28 +3639,28 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>-0.8091878787676406</v>
+        <v>-1.161134513166778</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G73" t="n">
-        <v>-1.228068316003446</v>
+        <v>-1.412841875214186</v>
       </c>
       <c r="H73" t="n">
-        <v>2.695482168755035</v>
+        <v>3.226718064912847</v>
       </c>
       <c r="I73" t="n">
-        <v>-1.296186389561531</v>
+        <v>-1.746718608191574</v>
       </c>
       <c r="J73" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K73" t="n">
-        <v>-1.545564852393507</v>
+        <v>-1.9411997244801</v>
       </c>
       <c r="L73" t="n">
-        <v>1.196445484027338</v>
+        <v>1.171488840307411</v>
       </c>
     </row>
     <row r="74">
@@ -3683,28 +3683,28 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-0.5184112922823974</v>
+        <v>-0.8993005645324152</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.3228764611849193</v>
+        <v>-0.7718707977748654</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.1317165172184705</v>
+        <v>-0.4211000197756662</v>
       </c>
       <c r="H74" t="n">
-        <v>0.07695903360620339</v>
+        <v>0.1788749395236064</v>
       </c>
       <c r="I74" t="n">
-        <v>-0.8461484283577795</v>
+        <v>-1.300853485672258</v>
       </c>
       <c r="J74" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K74" t="n">
-        <v>-1.479767001086649</v>
+        <v>-1.873311774995247</v>
       </c>
       <c r="L74" t="n">
-        <v>-1.90962321973414</v>
+        <v>-2.044440154447332</v>
       </c>
     </row>
     <row r="75">
@@ -3727,28 +3727,28 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.2365875638547259</v>
+        <v>-0.2194510136923149</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5199062652327064</v>
+        <v>-0.7722500989605645</v>
       </c>
       <c r="H75" t="n">
-        <v>0.1408254515366627</v>
+        <v>0.253212576728222</v>
       </c>
       <c r="I75" t="n">
-        <v>-0.02621625246601313</v>
+        <v>-0.4885238788904916</v>
       </c>
       <c r="J75" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K75" t="n">
-        <v>-0.02154435050223202</v>
+        <v>-0.3687680296552631</v>
       </c>
       <c r="L75" t="n">
-        <v>-0.813363677230089</v>
+        <v>-0.909406391592717</v>
       </c>
     </row>
     <row r="76">
@@ -3771,28 +3771,28 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1.335927114513848</v>
+        <v>0.7704650552674258</v>
       </c>
       <c r="F76" t="n">
-        <v>1.686538573063518</v>
+        <v>1.211330084099241</v>
       </c>
       <c r="G76" t="n">
-        <v>0.7486133715836879</v>
+        <v>0.3752319589616346</v>
       </c>
       <c r="H76" t="n">
-        <v>0.3962911232585</v>
+        <v>0.5505631255466845</v>
       </c>
       <c r="I76" t="n">
-        <v>1.339309890090575</v>
+        <v>0.8643408421783908</v>
       </c>
       <c r="J76" t="n">
-        <v>0.3840981469488125</v>
+        <v>-0.08074495545382948</v>
       </c>
       <c r="K76" t="n">
-        <v>0.641769123483119</v>
+        <v>0.3156158935298757</v>
       </c>
       <c r="L76" t="n">
-        <v>-0.14342729014428</v>
+        <v>-0.2157746476260076</v>
       </c>
     </row>
     <row r="77">
@@ -3815,28 +3815,28 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.009577772651334162</v>
+        <v>-0.4238652367489667</v>
       </c>
       <c r="F77" t="n">
-        <v>0.5904940089280066</v>
+        <v>0.1295841485315467</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.04888104797693905</v>
+        <v>-0.3461684129203113</v>
       </c>
       <c r="H77" t="n">
-        <v>1.35428739221539</v>
+        <v>1.665627683615919</v>
       </c>
       <c r="I77" t="n">
-        <v>-0.06012322214574783</v>
+        <v>-0.5221164566145496</v>
       </c>
       <c r="J77" t="n">
-        <v>0.2426255329713492</v>
+        <v>-0.1981921633866724</v>
       </c>
       <c r="K77" t="n">
-        <v>-0.3612035288700658</v>
+        <v>-0.7192166337527471</v>
       </c>
       <c r="L77" t="n">
-        <v>0.4656057890246372</v>
+        <v>0.4147996650710009</v>
       </c>
     </row>
     <row r="78">
@@ -3859,28 +3859,28 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>-0.04398633538542119</v>
+        <v>-0.4720978062342441</v>
       </c>
       <c r="F78" t="n">
-        <v>0.7731681029505918</v>
+        <v>0.3098751377928292</v>
       </c>
       <c r="G78" t="n">
-        <v>0.1395290389253679</v>
+        <v>-0.17573573850421</v>
       </c>
       <c r="H78" t="n">
-        <v>-1.775167086377116</v>
+        <v>-1.976916539410247</v>
       </c>
       <c r="I78" t="n">
-        <v>0.08475201194039136</v>
+        <v>-0.3785845336117563</v>
       </c>
       <c r="J78" t="n">
-        <v>-0.04031969498357715</v>
+        <v>-0.4330865792523581</v>
       </c>
       <c r="K78" t="n">
-        <v>-0.04644083478050256</v>
+        <v>-0.3944553618927751</v>
       </c>
       <c r="L78" t="n">
-        <v>-0.813363677230089</v>
+        <v>-0.909406391592717</v>
       </c>
     </row>
     <row r="79">
@@ -3903,28 +3903,28 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.07334456793318575</v>
+        <v>-0.3664455111712555</v>
       </c>
       <c r="F79" t="n">
-        <v>0.7731681029505918</v>
+        <v>0.3098751377928292</v>
       </c>
       <c r="G79" t="n">
-        <v>0.06481469411928069</v>
+        <v>-0.2433211093933536</v>
       </c>
       <c r="H79" t="n">
-        <v>-1.264235742933442</v>
+        <v>-1.382215441773322</v>
       </c>
       <c r="I79" t="n">
-        <v>0.223462342448397</v>
+        <v>-0.241160352013337</v>
       </c>
       <c r="J79" t="n">
-        <v>0.2426255329713492</v>
+        <v>-0.1981921633866724</v>
       </c>
       <c r="K79" t="n">
-        <v>0.05136678202698886</v>
+        <v>-0.2935408423882639</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03928263360639516</v>
+        <v>-0.02660235381690505</v>
       </c>
     </row>
     <row r="80">
@@ -3947,28 +3947,28 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-0.6000327902431674</v>
+        <v>-0.9727978132718856</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0680631438934584</v>
+        <v>-0.2403826150068691</v>
       </c>
       <c r="H80" t="n">
-        <v>-0.8171708174202267</v>
+        <v>-0.8618519813410125</v>
       </c>
       <c r="I80" t="n">
-        <v>-0.3221316242164251</v>
+        <v>-0.7816954663004526</v>
       </c>
       <c r="J80" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K80" t="n">
-        <v>-0.1282435688376772</v>
+        <v>-0.4788565963874571</v>
       </c>
       <c r="L80" t="n">
-        <v>-0.14342729014428</v>
+        <v>-0.2157746476260076</v>
       </c>
     </row>
     <row r="81">
@@ -3991,28 +3991,28 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>-1.633054873809163</v>
+        <v>-1.902997367630807</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G81" t="n">
-        <v>-1.752692954533146</v>
+        <v>-1.887408718631434</v>
       </c>
       <c r="H81" t="n">
-        <v>-0.9449036532811453</v>
+        <v>-1.010527255750244</v>
       </c>
       <c r="I81" t="n">
-        <v>-1.555112339843141</v>
+        <v>-2.00324374717529</v>
       </c>
       <c r="J81" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K81" t="n">
-        <v>-1.574017977282959</v>
+        <v>-1.970556675608685</v>
       </c>
       <c r="L81" t="n">
-        <v>0.1610892494401786</v>
+        <v>0.09951250872249666</v>
       </c>
     </row>
     <row r="82">
@@ -4035,28 +4035,28 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.1575167377052299</v>
+        <v>-0.2906514734086768</v>
       </c>
       <c r="F82" t="n">
-        <v>0.5904940089280066</v>
+        <v>0.1295841485315467</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.1463345412022702</v>
+        <v>-0.4343232445148464</v>
       </c>
       <c r="H82" t="n">
-        <v>-0.4339723098374709</v>
+        <v>-0.4158261581133187</v>
       </c>
       <c r="I82" t="n">
-        <v>0.266616667495332</v>
+        <v>-0.1984061621827177</v>
       </c>
       <c r="J82" t="n">
-        <v>2.081769514678371</v>
+        <v>1.328621539740285</v>
       </c>
       <c r="K82" t="n">
-        <v>-0.07845060028113612</v>
+        <v>-0.4274819319124332</v>
       </c>
       <c r="L82" t="n">
-        <v>-0.2043305980611717</v>
+        <v>-0.2788320788957084</v>
       </c>
     </row>
     <row r="83">
@@ -4079,28 +4079,28 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>1.096163964254086</v>
+        <v>0.5545668870952318</v>
       </c>
       <c r="F83" t="n">
-        <v>1.229853338007055</v>
+        <v>0.7606026109460352</v>
       </c>
       <c r="G83" t="n">
-        <v>0.3295633507147638</v>
+        <v>-0.003833816894866502</v>
       </c>
       <c r="H83" t="n">
-        <v>0.3324247053280406</v>
+        <v>0.4762254883420689</v>
       </c>
       <c r="I83" t="n">
-        <v>0.5039654552534749</v>
+        <v>0.03674188188568847</v>
       </c>
       <c r="J83" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K83" t="n">
-        <v>0.4141441243675025</v>
+        <v>0.08076028450119539</v>
       </c>
       <c r="L83" t="n">
-        <v>0.1001859415232869</v>
+        <v>0.0364550774527958</v>
       </c>
     </row>
     <row r="84">
@@ -4123,28 +4123,28 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.4049319033988141</v>
+        <v>-0.0678629381671574</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.7795616962413823</v>
+        <v>-1.222598270928071</v>
       </c>
       <c r="G84" t="n">
-        <v>1.218014363952367</v>
+        <v>0.7998443978086456</v>
       </c>
       <c r="H84" t="n">
-        <v>-0.3701058919070117</v>
+        <v>-0.3414885209087031</v>
       </c>
       <c r="I84" t="n">
-        <v>0.1618133066670611</v>
+        <v>-0.3022377660570789</v>
       </c>
       <c r="J84" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K84" t="n">
-        <v>1.278407792884608</v>
+        <v>0.9724776750319661</v>
       </c>
       <c r="L84" t="n">
-        <v>0.03928263360639516</v>
+        <v>-0.02660235381690505</v>
       </c>
     </row>
     <row r="85">
@@ -4167,28 +4167,28 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.759475285165909</v>
+        <v>0.2513907360449167</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.5968876022187971</v>
+        <v>-1.042307281666789</v>
       </c>
       <c r="G85" t="n">
-        <v>0.293830403198809</v>
+        <v>-0.03615725514619605</v>
       </c>
       <c r="H85" t="n">
-        <v>0.9072224667021743</v>
+        <v>1.14526422318361</v>
       </c>
       <c r="I85" t="n">
-        <v>1.135868072012167</v>
+        <v>0.6627853758340426</v>
       </c>
       <c r="J85" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K85" t="n">
-        <v>0.7129019357067491</v>
+        <v>0.3890082713513384</v>
       </c>
       <c r="L85" t="n">
-        <v>0.4047024811077454</v>
+        <v>0.3517422338013</v>
       </c>
     </row>
     <row r="86">
@@ -4211,28 +4211,28 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>-0.08224641255453219</v>
+        <v>-0.5065496415808708</v>
       </c>
       <c r="F86" t="n">
-        <v>0.5904940089280066</v>
+        <v>0.1295841485315467</v>
       </c>
       <c r="G86" t="n">
-        <v>0.1768862113284116</v>
+        <v>-0.1419430530596382</v>
       </c>
       <c r="H86" t="n">
-        <v>-0.4978387277679302</v>
+        <v>-0.4901637953179343</v>
       </c>
       <c r="I86" t="n">
-        <v>0.1525659512998608</v>
+        <v>-0.3113993781636402</v>
       </c>
       <c r="J86" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K86" t="n">
-        <v>0.2896617029761498</v>
+        <v>-0.04767637668636419</v>
       </c>
       <c r="L86" t="n">
-        <v>-1.178783524731439</v>
+        <v>-1.287750979210922</v>
       </c>
     </row>
     <row r="87">
@@ -4255,28 +4255,28 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>-0.191925300439317</v>
+        <v>-0.605311569574534</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.6882246492300897</v>
+        <v>-1.13245277629743</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.6855772037157695</v>
+        <v>-0.9221133126712743</v>
       </c>
       <c r="H87" t="n">
-        <v>-0.1785066381156338</v>
+        <v>-0.1184756092948562</v>
       </c>
       <c r="I87" t="n">
-        <v>-0.4577595029353639</v>
+        <v>-0.9160657771966847</v>
       </c>
       <c r="J87" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K87" t="n">
-        <v>-0.510582434539689</v>
+        <v>-0.8733406271778186</v>
       </c>
       <c r="L87" t="n">
-        <v>-0.7524603693131972</v>
+        <v>-0.8463489603230161</v>
       </c>
     </row>
     <row r="88">
@@ -4299,28 +4299,28 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>-1.314220897399905</v>
+        <v>-1.615898739742251</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.7001952276995692</v>
+        <v>-0.9353365374104545</v>
       </c>
       <c r="H88" t="n">
-        <v>0.5240239591194186</v>
+        <v>0.6992383999559157</v>
       </c>
       <c r="I88" t="n">
-        <v>-1.111239282217523</v>
+        <v>-1.563486366060348</v>
       </c>
       <c r="J88" t="n">
-        <v>-0.04031969498357715</v>
+        <v>-0.4330865792523581</v>
       </c>
       <c r="K88" t="n">
-        <v>-0.8698031362690212</v>
+        <v>-1.243972135176205</v>
       </c>
       <c r="L88" t="n">
-        <v>-0.4479438297287386</v>
+        <v>-0.5310618039745119</v>
       </c>
     </row>
     <row r="89">
@@ -4343,28 +4343,28 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-0.505657933226027</v>
+        <v>-0.8878166194168731</v>
       </c>
       <c r="F89" t="n">
-        <v>1.503864479040933</v>
+        <v>1.031039094837959</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.5085366910230845</v>
+        <v>-0.7619653686078688</v>
       </c>
       <c r="H89" t="n">
-        <v>-0.4339723098374709</v>
+        <v>-0.4158261581133187</v>
       </c>
       <c r="I89" t="n">
-        <v>0.3467604140110686</v>
+        <v>-0.1190055239258533</v>
       </c>
       <c r="J89" t="n">
-        <v>1.798824286723445</v>
+        <v>1.093727123874599</v>
       </c>
       <c r="K89" t="n">
-        <v>-0.1122386860873604</v>
+        <v>-0.462343311377628</v>
       </c>
       <c r="L89" t="n">
-        <v>-0.5697504455625221</v>
+        <v>-0.6571766665139136</v>
       </c>
     </row>
     <row r="90">
@@ -4387,28 +4387,28 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>1.221146883006515</v>
+        <v>0.6671095492275457</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1338087738715436</v>
+        <v>-0.3211433246216593</v>
       </c>
       <c r="G90" t="n">
-        <v>0.5423368109234036</v>
+        <v>0.1886375654198686</v>
       </c>
       <c r="H90" t="n">
-        <v>0.9072224667021743</v>
+        <v>1.14526422318361</v>
       </c>
       <c r="I90" t="n">
-        <v>0.7813861162694862</v>
+        <v>0.3115902450825269</v>
       </c>
       <c r="J90" t="n">
-        <v>-0.1817923089610404</v>
+        <v>-0.550533787185201</v>
       </c>
       <c r="K90" t="n">
-        <v>0.4977251787302679</v>
+        <v>0.166996328441414</v>
       </c>
       <c r="L90" t="n">
-        <v>0.282895865273962</v>
+        <v>0.2256273712618984</v>
       </c>
     </row>
     <row r="91">
@@ -4431,28 +4431,28 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>-0.6331915237897302</v>
+        <v>-1.002656070572295</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.2307942353308906</v>
+        <v>-0.5107240985634436</v>
       </c>
       <c r="H91" t="n">
-        <v>-0.2423730560460931</v>
+        <v>-0.1928132464994718</v>
       </c>
       <c r="I91" t="n">
-        <v>-0.8122414586780448</v>
+        <v>-1.2672609079482</v>
       </c>
       <c r="J91" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K91" t="n">
-        <v>-0.352311927342112</v>
+        <v>-0.7100425865250644</v>
       </c>
       <c r="L91" t="n">
-        <v>-0.2652339059780635</v>
+        <v>-0.3418895101654093</v>
       </c>
     </row>
     <row r="92">
@@ -4475,28 +4475,28 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.4891040731708582</v>
+        <v>0.007931099595421357</v>
       </c>
       <c r="F92" t="n">
-        <v>2.051886761108688</v>
+        <v>1.571912062621806</v>
       </c>
       <c r="G92" t="n">
-        <v>0.4806162652140271</v>
+        <v>0.132806172076663</v>
       </c>
       <c r="H92" t="n">
-        <v>0.07695903360620339</v>
+        <v>0.1788749395236064</v>
       </c>
       <c r="I92" t="n">
-        <v>0.4114919015814711</v>
+        <v>-0.05487423917992434</v>
       </c>
       <c r="J92" t="n">
-        <v>0.667043374903739</v>
+        <v>0.1541494604118563</v>
       </c>
       <c r="K92" t="n">
-        <v>0.4870552568967234</v>
+        <v>0.1559874717681946</v>
       </c>
       <c r="L92" t="n">
-        <v>0.5874124048584206</v>
+        <v>0.5409145276104026</v>
       </c>
     </row>
     <row r="93">
@@ -4519,28 +4519,28 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.438090636945377</v>
+        <v>-0.03800468086674759</v>
       </c>
       <c r="F93" t="n">
-        <v>0.955842196973177</v>
+        <v>0.4901661270541116</v>
       </c>
       <c r="G93" t="n">
-        <v>1.305722507855165</v>
+        <v>0.8791837462437272</v>
       </c>
       <c r="H93" t="n">
-        <v>0.7794896308412558</v>
+        <v>0.9965889487743783</v>
       </c>
       <c r="I93" t="n">
-        <v>0.621098623238013</v>
+        <v>0.152788968568798</v>
       </c>
       <c r="J93" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K93" t="n">
-        <v>1.573608963612674</v>
+        <v>1.277056042991036</v>
       </c>
       <c r="L93" t="n">
-        <v>2.353608334448281</v>
+        <v>2.369580034431727</v>
       </c>
     </row>
     <row r="94">
@@ -4563,28 +4563,28 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>-0.5566713694515083</v>
+        <v>-0.933752399879042</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.61411130868386</v>
+        <v>-0.8574664361686152</v>
       </c>
       <c r="H94" t="n">
-        <v>-0.4339723098374709</v>
+        <v>-0.4158261581133187</v>
       </c>
       <c r="I94" t="n">
-        <v>-0.6396241584903044</v>
+        <v>-1.096244148625723</v>
       </c>
       <c r="J94" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K94" t="n">
-        <v>-0.2224945450339871</v>
+        <v>-0.5761014970008951</v>
       </c>
       <c r="L94" t="n">
-        <v>0.4047024811077454</v>
+        <v>0.3517422338013</v>
       </c>
     </row>
     <row r="95">
@@ -4607,28 +4607,28 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>-1.696821669091015</v>
+        <v>-1.960417093208518</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.7795616962413823</v>
+        <v>-1.222598270928071</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.993078237822296</v>
+        <v>-2.104857303231288</v>
       </c>
       <c r="H95" t="n">
-        <v>-0.05077380225471521</v>
+        <v>0.0301996651143751</v>
       </c>
       <c r="I95" t="n">
-        <v>-2.362714708578641</v>
+        <v>-2.803357871148308</v>
       </c>
       <c r="J95" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K95" t="n">
-        <v>-2.288902740130442</v>
+        <v>-2.708150072714384</v>
       </c>
       <c r="L95" t="n">
-        <v>-0.4479438297287386</v>
+        <v>-0.5310618039745119</v>
       </c>
     </row>
     <row r="96">
@@ -4651,28 +4651,28 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0.7722286442222793</v>
+        <v>0.262874681160459</v>
       </c>
       <c r="F96" t="n">
-        <v>2.782583137199029</v>
+        <v>2.293076019666936</v>
       </c>
       <c r="G96" t="n">
-        <v>0.4335137434884503</v>
+        <v>0.09019800347263765</v>
       </c>
       <c r="H96" t="n">
-        <v>0.6517567949803371</v>
+        <v>0.8479136743651471</v>
       </c>
       <c r="I96" t="n">
-        <v>0.9077666396212246</v>
+        <v>0.4367989438721977</v>
       </c>
       <c r="J96" t="n">
-        <v>0.8085159888812021</v>
+        <v>0.2715966683446991</v>
       </c>
       <c r="K96" t="n">
-        <v>0.9618667784894546</v>
+        <v>0.6458815937264575</v>
       </c>
       <c r="L96" t="n">
-        <v>0.2219925573570703</v>
+        <v>0.1625699399921975</v>
       </c>
     </row>
     <row r="97">
@@ -4695,28 +4695,28 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>-0.9367214693313439</v>
+        <v>-1.275973964322201</v>
       </c>
       <c r="F97" t="n">
-        <v>0.499156961916714</v>
+        <v>0.03943865390090553</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.6595896055223479</v>
+        <v>-0.8986053575793982</v>
       </c>
       <c r="H97" t="n">
-        <v>0.9072224667021743</v>
+        <v>1.14526422318361</v>
       </c>
       <c r="I97" t="n">
-        <v>-1.484215948694605</v>
+        <v>-1.933004721024987</v>
       </c>
       <c r="J97" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K97" t="n">
-        <v>-1.271703525332532</v>
+        <v>-1.658639069867469</v>
       </c>
       <c r="L97" t="n">
-        <v>0.03928263360639516</v>
+        <v>-0.02660235381690505</v>
       </c>
     </row>
     <row r="98">
@@ -4739,28 +4739,28 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.2952530155140293</v>
+        <v>-0.1666248661608206</v>
       </c>
       <c r="F98" t="n">
-        <v>0.955842196973177</v>
+        <v>0.4901661270541116</v>
       </c>
       <c r="G98" t="n">
-        <v>0.2239887330539883</v>
+        <v>-0.09933488445561291</v>
       </c>
       <c r="H98" t="n">
-        <v>0.1408254515366627</v>
+        <v>0.253212576728222</v>
       </c>
       <c r="I98" t="n">
-        <v>0.06625730120599062</v>
+        <v>-0.3969077578248788</v>
       </c>
       <c r="J98" t="n">
-        <v>1.657351672745981</v>
+        <v>0.9762799159417564</v>
       </c>
       <c r="K98" t="n">
-        <v>0.3127798669488296</v>
+        <v>-0.02382385389438884</v>
       </c>
       <c r="L98" t="n">
-        <v>0.4656057890246372</v>
+        <v>0.4147996650710009</v>
       </c>
     </row>
     <row r="99">
@@ -4783,28 +4783,28 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>-0.4827018869245603</v>
+        <v>-0.8671455182088971</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.5968876022187971</v>
+        <v>-1.042307281666789</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.768412672957301</v>
+        <v>-0.9970449195266291</v>
       </c>
       <c r="H99" t="n">
-        <v>-0.8171708174202267</v>
+        <v>-0.8618519813410125</v>
       </c>
       <c r="I99" t="n">
-        <v>-1.142063800108191</v>
+        <v>-1.594025073082219</v>
       </c>
       <c r="J99" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K99" t="n">
-        <v>-1.198792392803311</v>
+        <v>-1.58341188260047</v>
       </c>
       <c r="L99" t="n">
-        <v>-1.483300064315898</v>
+        <v>-1.603038135559426</v>
       </c>
     </row>
     <row r="100">
@@ -4827,28 +4827,28 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.1167059887248449</v>
+        <v>-0.3274000977784119</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.5968876022187971</v>
+        <v>-1.042307281666789</v>
       </c>
       <c r="G100" t="n">
-        <v>0.9760048557761274</v>
+        <v>0.5809265660155499</v>
       </c>
       <c r="H100" t="n">
-        <v>1.609753063937227</v>
+        <v>1.962978232434382</v>
       </c>
       <c r="I100" t="n">
-        <v>0.3714200283236028</v>
+        <v>-0.09457455830835655</v>
       </c>
       <c r="J100" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K100" t="n">
-        <v>1.145033769965302</v>
+        <v>0.8348669666167238</v>
       </c>
       <c r="L100" t="n">
-        <v>0.6483157127753123</v>
+        <v>0.6039719588801035</v>
       </c>
     </row>
     <row r="101">
@@ -4871,28 +4871,28 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>-0.02613163270650275</v>
+        <v>-0.456020283072485</v>
       </c>
       <c r="F101" t="n">
-        <v>1.503864479040933</v>
+        <v>1.031039094837959</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.326623503669133</v>
+        <v>-0.5974096829647365</v>
       </c>
       <c r="H101" t="n">
-        <v>0.07695903360620339</v>
+        <v>0.1788749395236064</v>
       </c>
       <c r="I101" t="n">
-        <v>0.04159768689345626</v>
+        <v>-0.4213387234423756</v>
       </c>
       <c r="J101" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K101" t="n">
-        <v>-0.2989623181743895</v>
+        <v>-0.6549983031589673</v>
       </c>
       <c r="L101" t="n">
-        <v>-0.6306537534794138</v>
+        <v>-0.7202340977836144</v>
       </c>
     </row>
     <row r="102">
@@ -4915,28 +4915,28 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>-0.4163844198314347</v>
+        <v>-0.8074290036080773</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.5968876022187971</v>
+        <v>-1.042307281666789</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1349649669926482</v>
+        <v>-0.4240385141621507</v>
       </c>
       <c r="H102" t="n">
-        <v>-1.264235742933442</v>
+        <v>-1.382215441773322</v>
       </c>
       <c r="I102" t="n">
-        <v>-1.068084957170588</v>
+        <v>-1.520732176229729</v>
       </c>
       <c r="J102" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K102" t="n">
-        <v>-0.7542123164056221</v>
+        <v>-1.124709521216328</v>
       </c>
       <c r="L102" t="n">
-        <v>-0.6306537534794138</v>
+        <v>-0.7202340977836144</v>
       </c>
     </row>
     <row r="103">
@@ -4959,28 +4959,28 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>0.4431919805679251</v>
+        <v>-0.03341110282053069</v>
       </c>
       <c r="F103" t="n">
-        <v>0.5904940089280066</v>
+        <v>0.1295841485315467</v>
       </c>
       <c r="G103" t="n">
-        <v>1.075082573888547</v>
+        <v>0.6705506448033274</v>
       </c>
       <c r="H103" t="n">
-        <v>0.7156232129107964</v>
+        <v>0.9222513115697627</v>
       </c>
       <c r="I103" t="n">
-        <v>-0.3652859492633602</v>
+        <v>-0.8244496561310719</v>
       </c>
       <c r="J103" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K103" t="n">
-        <v>-0.2740658338961189</v>
+        <v>-0.6293109709214554</v>
       </c>
       <c r="L103" t="n">
-        <v>0.1001859415232869</v>
+        <v>0.0364550774527958</v>
       </c>
     </row>
     <row r="104">
@@ -5003,28 +5003,28 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0.8691541730506939</v>
+        <v>0.35015266403858</v>
       </c>
       <c r="F104" t="n">
-        <v>2.325897902142566</v>
+        <v>1.84234854651373</v>
       </c>
       <c r="G104" t="n">
-        <v>0.3847869968757848</v>
+        <v>0.04612058767537008</v>
       </c>
       <c r="H104" t="n">
-        <v>1.098821720493552</v>
+        <v>1.368277134797456</v>
       </c>
       <c r="I104" t="n">
-        <v>1.579741129637785</v>
+        <v>1.102542756948984</v>
       </c>
       <c r="J104" t="n">
-        <v>-0.3232649229385035</v>
+        <v>-0.6679809951180439</v>
       </c>
       <c r="K104" t="n">
-        <v>0.6150943188992577</v>
+        <v>0.2880937518468273</v>
       </c>
       <c r="L104" t="n">
-        <v>1.257348791944229</v>
+        <v>1.234546271577112</v>
       </c>
     </row>
     <row r="105">
@@ -5047,28 +5047,28 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>0.2620942819674665</v>
+        <v>-0.1964831234612305</v>
       </c>
       <c r="F105" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G105" t="n">
-        <v>1.052343425469304</v>
+        <v>0.6499811840979358</v>
       </c>
       <c r="H105" t="n">
-        <v>-0.1146402201851745</v>
+        <v>-0.04413797209024053</v>
       </c>
       <c r="I105" t="n">
-        <v>0.3683375765345361</v>
+        <v>-0.09762842901054364</v>
       </c>
       <c r="J105" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K105" t="n">
-        <v>0.4123658040619118</v>
+        <v>0.07892547505565882</v>
       </c>
       <c r="L105" t="n">
-        <v>1.500962023611796</v>
+        <v>1.486775996655915</v>
       </c>
     </row>
     <row r="106">
@@ -5091,28 +5091,28 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0.4023812315875401</v>
+        <v>-0.07015972719026585</v>
       </c>
       <c r="F106" t="n">
-        <v>-0.1402023671623341</v>
+        <v>-0.5915798085135829</v>
       </c>
       <c r="G106" t="n">
-        <v>0.5342156864879593</v>
+        <v>0.1812913294536573</v>
       </c>
       <c r="H106" t="n">
-        <v>1.162688138424012</v>
+        <v>1.442614772002072</v>
       </c>
       <c r="I106" t="n">
-        <v>0.08166956015132458</v>
+        <v>-0.3816384043139434</v>
       </c>
       <c r="J106" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K106" t="n">
-        <v>0.1420611176121173</v>
+        <v>-0.1999655606658991</v>
       </c>
       <c r="L106" t="n">
-        <v>0.6483157127753123</v>
+        <v>0.6039719588801035</v>
       </c>
     </row>
     <row r="107">
@@ -5135,28 +5135,28 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-0.5235126359049455</v>
+        <v>-0.9038941425786322</v>
       </c>
       <c r="F107" t="n">
-        <v>0.5904940089280066</v>
+        <v>0.1295841485315467</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.6303535575547485</v>
+        <v>-0.8721589081010377</v>
       </c>
       <c r="H107" t="n">
-        <v>-0.9449036532811453</v>
+        <v>-1.010527255750244</v>
       </c>
       <c r="I107" t="n">
-        <v>-0.3930280153649613</v>
+        <v>-0.8519344924507557</v>
       </c>
       <c r="J107" t="n">
-        <v>0.8085159888812021</v>
+        <v>0.2715966683446991</v>
       </c>
       <c r="K107" t="n">
-        <v>-0.2296078262563501</v>
+        <v>-0.5834407347830413</v>
       </c>
       <c r="L107" t="n">
-        <v>-1.239686832648331</v>
+        <v>-1.350808410480623</v>
       </c>
     </row>
     <row r="108">
@@ -5179,28 +5179,28 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>0.08354725517828201</v>
+        <v>-0.3572583550788218</v>
       </c>
       <c r="F108" t="n">
-        <v>-0.6882246492300897</v>
+        <v>-1.13245277629743</v>
       </c>
       <c r="G108" t="n">
-        <v>0.569948634003914</v>
+        <v>0.2136147677049869</v>
       </c>
       <c r="H108" t="n">
-        <v>0.01309261567574409</v>
+        <v>0.1045373023189907</v>
       </c>
       <c r="I108" t="n">
-        <v>-0.01388644530974597</v>
+        <v>-0.4763083960817432</v>
       </c>
       <c r="J108" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K108" t="n">
-        <v>0.7271284981514751</v>
+        <v>0.4036867469156309</v>
       </c>
       <c r="L108" t="n">
-        <v>0.03928263360639516</v>
+        <v>-0.02660235381690505</v>
       </c>
     </row>
     <row r="109">
@@ -5223,28 +5223,28 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1.310420396401107</v>
+        <v>0.7474971650363413</v>
       </c>
       <c r="F109" t="n">
-        <v>2.965257231221614</v>
+        <v>2.473367008928218</v>
       </c>
       <c r="G109" t="n">
-        <v>1.430787824161006</v>
+        <v>0.9923157801233806</v>
       </c>
       <c r="H109" t="n">
-        <v>0.843356048771715</v>
+        <v>1.070926585978994</v>
       </c>
       <c r="I109" t="n">
-        <v>1.012570000449496</v>
+        <v>0.5406305477465589</v>
       </c>
       <c r="J109" t="n">
-        <v>3.213550426498077</v>
+        <v>2.268199203203028</v>
       </c>
       <c r="K109" t="n">
-        <v>1.363767167552965</v>
+        <v>1.060548528417721</v>
       </c>
       <c r="L109" t="n">
-        <v>2.049091794863822</v>
+        <v>2.054292878083223</v>
       </c>
     </row>
     <row r="110">
@@ -5267,28 +5267,28 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>0.2008781584968889</v>
+        <v>-0.2516060600158332</v>
       </c>
       <c r="F110" t="n">
-        <v>-0.1402023671623341</v>
+        <v>-0.5915798085135829</v>
       </c>
       <c r="G110" t="n">
-        <v>0.5845666579877137</v>
+        <v>0.2268379924441671</v>
       </c>
       <c r="H110" t="n">
-        <v>-0.1785066381156338</v>
+        <v>-0.1184756092948562</v>
       </c>
       <c r="I110" t="n">
-        <v>-0.1125249025598832</v>
+        <v>-0.5740322585517302</v>
       </c>
       <c r="J110" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K110" t="n">
-        <v>0.8462759586260555</v>
+        <v>0.5266189797665808</v>
       </c>
       <c r="L110" t="n">
-        <v>0.7701223286090958</v>
+        <v>0.7300868214195052</v>
       </c>
     </row>
     <row r="111">
@@ -5311,28 +5311,28 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>-1.013241623669566</v>
+        <v>-1.344877635015454</v>
       </c>
       <c r="F111" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G111" t="n">
-        <v>-0.2454122593146903</v>
+        <v>-0.5239473233026238</v>
       </c>
       <c r="H111" t="n">
-        <v>1.737485899798145</v>
+        <v>2.111653506843613</v>
       </c>
       <c r="I111" t="n">
-        <v>-0.8954676569828481</v>
+        <v>-1.349715416907252</v>
       </c>
       <c r="J111" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K111" t="n">
-        <v>-0.4305580207881052</v>
+        <v>-0.7907742021286732</v>
       </c>
       <c r="L111" t="n">
-        <v>1.318252099861121</v>
+        <v>1.297603702846813</v>
       </c>
     </row>
     <row r="112">
@@ -5355,28 +5355,28 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>-1.173933947779832</v>
+        <v>-1.489575343471286</v>
       </c>
       <c r="F112" t="n">
-        <v>-0.7795616962413823</v>
+        <v>-1.222598270928071</v>
       </c>
       <c r="G112" t="n">
-        <v>0.08755384253852463</v>
+        <v>-0.2227516486879621</v>
       </c>
       <c r="H112" t="n">
-        <v>0.7156232129107964</v>
+        <v>0.9222513115697627</v>
       </c>
       <c r="I112" t="n">
-        <v>-0.8492308801468462</v>
+        <v>-1.303907356374446</v>
       </c>
       <c r="J112" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K112" t="n">
-        <v>-0.03043595203018578</v>
+        <v>-0.377942076882946</v>
       </c>
       <c r="L112" t="n">
-        <v>-0.4479438297287386</v>
+        <v>-0.5310618039745119</v>
       </c>
     </row>
     <row r="113">
@@ -5399,28 +5399,28 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>-0.3577189681721312</v>
+        <v>-0.7546028560765831</v>
       </c>
       <c r="F113" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G113" t="n">
-        <v>0.08430539276434694</v>
+        <v>-0.2256901430744466</v>
       </c>
       <c r="H113" t="n">
-        <v>0.2685582873975814</v>
+        <v>0.4018878511374532</v>
       </c>
       <c r="I113" t="n">
-        <v>-0.3036369134820244</v>
+        <v>-0.76337224208733</v>
       </c>
       <c r="J113" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K113" t="n">
-        <v>0.1136079927226652</v>
+        <v>-0.2293225117944842</v>
       </c>
       <c r="L113" t="n">
-        <v>0.4047024811077454</v>
+        <v>0.3517422338013</v>
       </c>
     </row>
     <row r="114">
@@ -5443,28 +5443,28 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>-1.156079245100913</v>
+        <v>-1.473497820309527</v>
       </c>
       <c r="F114" t="n">
-        <v>-0.7795616962413823</v>
+        <v>-1.222598270928071</v>
       </c>
       <c r="G114" t="n">
-        <v>-1.215074516906736</v>
+        <v>-1.401087897668249</v>
       </c>
       <c r="H114" t="n">
-        <v>-0.4978387277679302</v>
+        <v>-0.4901637953179343</v>
       </c>
       <c r="I114" t="n">
-        <v>-1.733894543609015</v>
+        <v>-2.180368247902142</v>
       </c>
       <c r="J114" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K114" t="n">
-        <v>-1.326831454805845</v>
+        <v>-1.715518162679102</v>
       </c>
       <c r="L114" t="n">
-        <v>0.3437991731908537</v>
+        <v>0.2886848025315992</v>
       </c>
     </row>
     <row r="115">
@@ -5487,28 +5487,28 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>1.511923469491758</v>
+        <v>0.9289434978619087</v>
       </c>
       <c r="F115" t="n">
-        <v>1.138516290995762</v>
+        <v>0.6704571163153941</v>
       </c>
       <c r="G115" t="n">
-        <v>0.9321507838247283</v>
+        <v>0.5412568917980092</v>
       </c>
       <c r="H115" t="n">
-        <v>-0.3701058919070117</v>
+        <v>-0.3414885209087031</v>
       </c>
       <c r="I115" t="n">
-        <v>1.462607961653247</v>
+        <v>0.9864956702658745</v>
       </c>
       <c r="J115" t="n">
-        <v>3.496495654453003</v>
+        <v>2.503093619068714</v>
       </c>
       <c r="K115" t="n">
-        <v>1.393998612748007</v>
+        <v>1.091740288991843</v>
       </c>
       <c r="L115" t="n">
-        <v>0.2219925573570703</v>
+        <v>0.1625699399921975</v>
       </c>
     </row>
     <row r="116">
@@ -5531,28 +5531,28 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>0.680404459016413</v>
+        <v>0.1801902763285549</v>
       </c>
       <c r="F116" t="n">
-        <v>1.138516290995762</v>
+        <v>0.6704571163153941</v>
       </c>
       <c r="G116" t="n">
-        <v>0.4367621932626281</v>
+        <v>0.09313649785912216</v>
       </c>
       <c r="H116" t="n">
-        <v>-0.1785066381156338</v>
+        <v>-0.1184756092948562</v>
       </c>
       <c r="I116" t="n">
-        <v>0.9447560610900261</v>
+        <v>0.4734453922984428</v>
       </c>
       <c r="J116" t="n">
-        <v>3.496495654453003</v>
+        <v>2.503093619068714</v>
       </c>
       <c r="K116" t="n">
-        <v>0.6791138499005248</v>
+        <v>0.3541468918861436</v>
       </c>
       <c r="L116" t="n">
-        <v>-1.90962321973414</v>
+        <v>-2.044440154447332</v>
       </c>
     </row>
     <row r="117">
@@ -5575,28 +5575,28 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>-0.5337153231500417</v>
+        <v>-0.913081298671066</v>
       </c>
       <c r="F117" t="n">
-        <v>-0.5968876022187971</v>
+        <v>-1.042307281666789</v>
       </c>
       <c r="G117" t="n">
-        <v>-1.231316765777624</v>
+        <v>-1.415780369600671</v>
       </c>
       <c r="H117" t="n">
-        <v>-0.6894379815593081</v>
+        <v>-0.7131767069317813</v>
       </c>
       <c r="I117" t="n">
-        <v>-0.1248547097161504</v>
+        <v>-0.5862477413604786</v>
       </c>
       <c r="J117" t="n">
-        <v>0.3840981469488125</v>
+        <v>-0.08074495545382948</v>
       </c>
       <c r="K117" t="n">
-        <v>-1.449535555891607</v>
+        <v>-1.842120014421125</v>
       </c>
       <c r="L117" t="n">
-        <v>-1.605106680149681</v>
+        <v>-1.729152998098828</v>
       </c>
     </row>
     <row r="118">
@@ -5619,28 +5619,28 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>-0.3679216554172274</v>
+        <v>-0.7637900121690169</v>
       </c>
       <c r="F118" t="n">
-        <v>0.955842196973177</v>
+        <v>0.4901661270541116</v>
       </c>
       <c r="G118" t="n">
-        <v>-0.6774560792803253</v>
+        <v>-0.914767076705063</v>
       </c>
       <c r="H118" t="n">
-        <v>-1.072636489142064</v>
+        <v>-1.159202530159475</v>
       </c>
       <c r="I118" t="n">
-        <v>-0.3868631117868277</v>
+        <v>-0.8458267510463815</v>
       </c>
       <c r="J118" t="n">
-        <v>1.232933830813592</v>
+        <v>0.6239382921432278</v>
       </c>
       <c r="K118" t="n">
-        <v>-0.2971839978687987</v>
+        <v>-0.6531634937134307</v>
       </c>
       <c r="L118" t="n">
-        <v>-1.300590140565223</v>
+        <v>-1.413865841750324</v>
       </c>
     </row>
     <row r="119">
@@ -5663,28 +5663,28 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0.2952530155140293</v>
+        <v>-0.1666248661608206</v>
       </c>
       <c r="F119" t="n">
-        <v>-0.7795616962413823</v>
+        <v>-1.222598270928071</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04369977058712559</v>
+        <v>-0.2624213229055029</v>
       </c>
       <c r="H119" t="n">
-        <v>-0.9449036532811453</v>
+        <v>-1.010527255750244</v>
       </c>
       <c r="I119" t="n">
-        <v>0.3344306068548014</v>
+        <v>-0.1312210067346017</v>
       </c>
       <c r="J119" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K119" t="n">
-        <v>0.1473960785288896</v>
+        <v>-0.1944611323292894</v>
       </c>
       <c r="L119" t="n">
-        <v>0.4656057890246372</v>
+        <v>0.4147996650710009</v>
       </c>
     </row>
     <row r="120">
@@ -5707,28 +5707,28 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>-1.048951029027403</v>
+        <v>-1.377032681338972</v>
       </c>
       <c r="F120" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G120" t="n">
-        <v>-0.7505461991993236</v>
+        <v>-0.9808832004009643</v>
       </c>
       <c r="H120" t="n">
-        <v>-1.072636489142064</v>
+        <v>-1.159202530159475</v>
       </c>
       <c r="I120" t="n">
-        <v>-1.03726043927992</v>
+        <v>-1.490193469207858</v>
       </c>
       <c r="J120" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K120" t="n">
-        <v>0.2398687344196087</v>
+        <v>-0.09905104116138802</v>
       </c>
       <c r="L120" t="n">
-        <v>0.4656057890246372</v>
+        <v>0.4147996650710009</v>
       </c>
     </row>
     <row r="121">
@@ -5751,28 +5751,28 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0.3233104054380441</v>
+        <v>-0.1413601869066277</v>
       </c>
       <c r="F121" t="n">
-        <v>1.138516290995762</v>
+        <v>0.6704571163153941</v>
       </c>
       <c r="G121" t="n">
-        <v>-0.602741734474238</v>
+        <v>-0.8471817058159193</v>
       </c>
       <c r="H121" t="n">
-        <v>0.01309261567574409</v>
+        <v>0.1045373023189907</v>
       </c>
       <c r="I121" t="n">
-        <v>0.3498428658001353</v>
+        <v>-0.1159516532236662</v>
       </c>
       <c r="J121" t="n">
-        <v>0.9499886028586654</v>
+        <v>0.3890438762775421</v>
       </c>
       <c r="K121" t="n">
-        <v>-0.4839076299558278</v>
+        <v>-0.8458184854947701</v>
       </c>
       <c r="L121" t="n">
-        <v>-0.9351702930638723</v>
+        <v>-1.035521254132119</v>
       </c>
     </row>
     <row r="122">
@@ -5795,28 +5795,28 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>-0.505657933226027</v>
+        <v>-0.8878166194168731</v>
       </c>
       <c r="F122" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G122" t="n">
-        <v>-0.7586673236347679</v>
+        <v>-0.9882294363671756</v>
       </c>
       <c r="H122" t="n">
-        <v>-1.008770071211605</v>
+        <v>-1.084864892954859</v>
       </c>
       <c r="I122" t="n">
-        <v>-0.2142458115990873</v>
+        <v>-0.6748099917239043</v>
       </c>
       <c r="J122" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K122" t="n">
-        <v>-0.6315082153198602</v>
+        <v>-0.9981076694743051</v>
       </c>
       <c r="L122" t="n">
-        <v>-0.14342729014428</v>
+        <v>-0.2157746476260076</v>
       </c>
     </row>
     <row r="123">
@@ -5839,28 +5839,28 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>-1.082109762573966</v>
+        <v>-1.406890938639382</v>
       </c>
       <c r="F123" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G123" t="n">
-        <v>-1.328770259002955</v>
+        <v>-1.503935201195206</v>
       </c>
       <c r="H123" t="n">
-        <v>1.929085153589523</v>
+        <v>2.33466641845746</v>
       </c>
       <c r="I123" t="n">
-        <v>-1.311598648506865</v>
+        <v>-1.76198796170251</v>
       </c>
       <c r="J123" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K123" t="n">
-        <v>-1.627367586450682</v>
+        <v>-2.025600958974782</v>
       </c>
       <c r="L123" t="n">
-        <v>1.379155407778013</v>
+        <v>1.360661134116514</v>
       </c>
     </row>
     <row r="124">
@@ -5883,28 +5883,28 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>-0.003175586405036167</v>
+        <v>-0.4353491818645089</v>
       </c>
       <c r="F124" t="n">
-        <v>1.321190385018347</v>
+        <v>0.8507481055766765</v>
       </c>
       <c r="G124" t="n">
-        <v>0.2434794316990546</v>
+        <v>-0.08170391813670588</v>
       </c>
       <c r="H124" t="n">
-        <v>-0.2423730560460931</v>
+        <v>-0.1928132464994718</v>
       </c>
       <c r="I124" t="n">
-        <v>-0.1649265829740187</v>
+        <v>-0.6259480604889108</v>
       </c>
       <c r="J124" t="n">
-        <v>0.8085159888812021</v>
+        <v>0.2715966683446991</v>
       </c>
       <c r="K124" t="n">
-        <v>0.2647652186978793</v>
+        <v>-0.07336370892387611</v>
       </c>
       <c r="L124" t="n">
-        <v>0.1001859415232869</v>
+        <v>0.0364550774527958</v>
       </c>
     </row>
     <row r="125">
@@ -5927,28 +5927,28 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>-0.05418902263051745</v>
+        <v>-0.4812849623266779</v>
       </c>
       <c r="F125" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G125" t="n">
-        <v>-0.3217508290078664</v>
+        <v>-0.5930019413850097</v>
       </c>
       <c r="H125" t="n">
-        <v>-0.4339723098374709</v>
+        <v>-0.4158261581133187</v>
       </c>
       <c r="I125" t="n">
-        <v>-0.6334592549121708</v>
+        <v>-1.090136407221349</v>
       </c>
       <c r="J125" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K125" t="n">
-        <v>-0.2794007948128912</v>
+        <v>-0.6348153992580651</v>
       </c>
       <c r="L125" t="n">
-        <v>-0.3870405218118469</v>
+        <v>-0.468004372704811</v>
       </c>
     </row>
     <row r="126">
@@ -5971,28 +5971,28 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>-0.005726258216310232</v>
+        <v>-0.4376459708876174</v>
       </c>
       <c r="F126" t="n">
-        <v>-0.4142135081962119</v>
+        <v>-0.8620162924055066</v>
       </c>
       <c r="G126" t="n">
-        <v>-0.6011175095871492</v>
+        <v>-0.8457124586226771</v>
       </c>
       <c r="H126" t="n">
-        <v>-0.1785066381156338</v>
+        <v>-0.1184756092948562</v>
       </c>
       <c r="I126" t="n">
-        <v>0.1772255656123951</v>
+        <v>-0.2869684125461434</v>
       </c>
       <c r="J126" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K126" t="n">
-        <v>-0.03221427233577653</v>
+        <v>-0.3797768863284826</v>
       </c>
       <c r="L126" t="n">
-        <v>-1.056976908897656</v>
+        <v>-1.16163611667152</v>
       </c>
     </row>
     <row r="127">
@@ -6015,28 +6015,28 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>-1.066805731706321</v>
+        <v>-1.393110204500732</v>
       </c>
       <c r="F127" t="n">
-        <v>0.04247172686025093</v>
+        <v>-0.4112888192523005</v>
       </c>
       <c r="G127" t="n">
-        <v>-2.098652855483072</v>
+        <v>-2.200358370792034</v>
       </c>
       <c r="H127" t="n">
-        <v>-0.6255715636288488</v>
+        <v>-0.6388390697271655</v>
       </c>
       <c r="I127" t="n">
-        <v>-1.459556334382071</v>
+        <v>-1.90857375540749</v>
       </c>
       <c r="J127" t="n">
-        <v>0.667043374903739</v>
+        <v>0.1541494604118563</v>
       </c>
       <c r="K127" t="n">
-        <v>-2.370705474187617</v>
+        <v>-2.792551307209066</v>
       </c>
       <c r="L127" t="n">
-        <v>-1.483300064315898</v>
+        <v>-1.603038135559426</v>
       </c>
     </row>
     <row r="128">
@@ -6059,28 +6059,28 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>-0.7683771297872557</v>
+        <v>-1.124385888797043</v>
       </c>
       <c r="F128" t="n">
-        <v>-0.5055505552075045</v>
+        <v>-0.9521617870361478</v>
       </c>
       <c r="G128" t="n">
-        <v>-0.6417231317643705</v>
+        <v>-0.8824436384537334</v>
       </c>
       <c r="H128" t="n">
-        <v>-0.6255715636288488</v>
+        <v>-0.6388390697271655</v>
       </c>
       <c r="I128" t="n">
-        <v>-0.4300174368337628</v>
+        <v>-0.8885809408770009</v>
       </c>
       <c r="J128" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K128" t="n">
-        <v>-1.092093174467865</v>
+        <v>-1.473323315868275</v>
       </c>
       <c r="L128" t="n">
-        <v>0.282895865273962</v>
+        <v>0.2256273712618984</v>
       </c>
     </row>
     <row r="129">
@@ -6103,28 +6103,28 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>0.359019810795881</v>
+        <v>-0.1092051405831095</v>
       </c>
       <c r="F129" t="n">
-        <v>-0.7795616962413823</v>
+        <v>-1.222598270928071</v>
       </c>
       <c r="G129" t="n">
-        <v>1.04259807614677</v>
+        <v>0.6411657009384822</v>
       </c>
       <c r="H129" t="n">
-        <v>-0.05077380225471521</v>
+        <v>0.0301996651143751</v>
       </c>
       <c r="I129" t="n">
-        <v>0.4885531963081409</v>
+        <v>0.021472528374753</v>
       </c>
       <c r="J129" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K129" t="n">
-        <v>-0.5834935670689099</v>
+        <v>-0.9485678144448179</v>
       </c>
       <c r="L129" t="n">
-        <v>-1.422396756399006</v>
+        <v>-1.539980704289726</v>
       </c>
     </row>
     <row r="130">
@@ -6147,28 +6147,28 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>0.8436474549379532</v>
+        <v>0.3271847738074955</v>
       </c>
       <c r="F130" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G130" t="n">
-        <v>1.305722507855165</v>
+        <v>0.8791837462437272</v>
       </c>
       <c r="H130" t="n">
-        <v>-0.1146402201851745</v>
+        <v>-0.04413797209024053</v>
       </c>
       <c r="I130" t="n">
-        <v>1.089631295176165</v>
+        <v>0.6169773153012362</v>
       </c>
       <c r="J130" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K130" t="n">
-        <v>1.578943924529446</v>
+        <v>1.282560471327646</v>
       </c>
       <c r="L130" t="n">
-        <v>0.8919289444428792</v>
+        <v>0.8562016839589068</v>
       </c>
     </row>
     <row r="131">
@@ -6191,28 +6191,28 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0.3360637644944144</v>
+        <v>-0.1298762417910855</v>
       </c>
       <c r="F131" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G131" t="n">
-        <v>1.359321929129097</v>
+        <v>0.9276689036207215</v>
       </c>
       <c r="H131" t="n">
-        <v>0.5240239591194186</v>
+        <v>0.6992383999559157</v>
       </c>
       <c r="I131" t="n">
-        <v>0.9139315431993582</v>
+        <v>0.4429066852765719</v>
       </c>
       <c r="J131" t="n">
-        <v>-0.3232649229385035</v>
+        <v>-0.6679809951180439</v>
       </c>
       <c r="K131" t="n">
-        <v>1.097019121714352</v>
+        <v>0.7853271115872366</v>
       </c>
       <c r="L131" t="n">
-        <v>0.4656057890246372</v>
+        <v>0.4147996650710009</v>
       </c>
     </row>
     <row r="132">
@@ -6235,28 +6235,28 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0.4023812315875401</v>
+        <v>-0.07015972719026585</v>
       </c>
       <c r="F132" t="n">
-        <v>-0.5968876022187971</v>
+        <v>-1.042307281666789</v>
       </c>
       <c r="G132" t="n">
-        <v>0.01771217239370394</v>
+        <v>-0.2859292779973789</v>
       </c>
       <c r="H132" t="n">
-        <v>0.843356048771715</v>
+        <v>1.070926585978994</v>
       </c>
       <c r="I132" t="n">
-        <v>0.6457582375505474</v>
+        <v>0.1772199341862948</v>
       </c>
       <c r="J132" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K132" t="n">
-        <v>-0.3345287242862045</v>
+        <v>-0.6916944920696987</v>
       </c>
       <c r="L132" t="n">
-        <v>1.927285179030038</v>
+        <v>1.928178015543821</v>
       </c>
     </row>
     <row r="133">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0.3717731698522513</v>
+        <v>-0.09772119546756722</v>
       </c>
       <c r="F133" t="n">
-        <v>2.325897902142566</v>
+        <v>1.84234854651373</v>
       </c>
       <c r="G133" t="n">
-        <v>0.581318208213536</v>
+        <v>0.2238994980576826</v>
       </c>
       <c r="H133" t="n">
-        <v>0.2685582873975814</v>
+        <v>0.4018878511374532</v>
       </c>
       <c r="I133" t="n">
-        <v>-0.05087586677854746</v>
+        <v>-0.5129548445079883</v>
       </c>
       <c r="J133" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K133" t="n">
-        <v>0.8231577946533758</v>
+        <v>0.5027664569746054</v>
       </c>
       <c r="L133" t="n">
-        <v>0.7701223286090958</v>
+        <v>0.7300868214195052</v>
       </c>
     </row>
     <row r="134">
@@ -6323,28 +6323,28 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>-0.977532218311729</v>
+        <v>-1.312722588691936</v>
       </c>
       <c r="F134" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G134" t="n">
-        <v>-1.115996798794316</v>
+        <v>-1.311463818880471</v>
       </c>
       <c r="H134" t="n">
-        <v>-0.9449036532811453</v>
+        <v>-1.010527255750244</v>
       </c>
       <c r="I134" t="n">
-        <v>-0.9139623677172488</v>
+        <v>-1.368038641120374</v>
       </c>
       <c r="J134" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K134" t="n">
-        <v>-0.9089261829920177</v>
+        <v>-1.284337942978009</v>
       </c>
       <c r="L134" t="n">
-        <v>-1.483300064315898</v>
+        <v>-1.603038135559426</v>
       </c>
     </row>
     <row r="135">
@@ -6367,28 +6367,28 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>-1.41114642622832</v>
+        <v>-1.703176722620372</v>
       </c>
       <c r="F135" t="n">
-        <v>-0.04886532015104166</v>
+        <v>-0.5014343138829418</v>
       </c>
       <c r="G135" t="n">
-        <v>-2.111646654579783</v>
+        <v>-2.212112348337972</v>
       </c>
       <c r="H135" t="n">
-        <v>-1.072636489142064</v>
+        <v>-1.159202530159475</v>
       </c>
       <c r="I135" t="n">
-        <v>-0.6858609353263063</v>
+        <v>-1.14205220915853</v>
       </c>
       <c r="J135" t="n">
-        <v>-0.3232649229385035</v>
+        <v>-0.6679809951180439</v>
       </c>
       <c r="K135" t="n">
-        <v>-1.662933992562497</v>
+        <v>-2.062297147885513</v>
       </c>
       <c r="L135" t="n">
-        <v>-0.813363677230089</v>
+        <v>-0.909406391592717</v>
       </c>
     </row>
     <row r="136">
@@ -6411,28 +6411,28 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>0.915066265653627</v>
+        <v>0.391494866454532</v>
       </c>
       <c r="F136" t="n">
-        <v>0.5904940089280066</v>
+        <v>0.1295841485315467</v>
       </c>
       <c r="G136" t="n">
-        <v>0.2922061783117201</v>
+        <v>-0.03762650233943831</v>
       </c>
       <c r="H136" t="n">
-        <v>-0.05077380225471521</v>
+        <v>0.0301996651143751</v>
       </c>
       <c r="I136" t="n">
-        <v>0.09091691551852495</v>
+        <v>-0.3724767922073821</v>
       </c>
       <c r="J136" t="n">
-        <v>0.8085159888812021</v>
+        <v>0.2715966683446991</v>
       </c>
       <c r="K136" t="n">
-        <v>0.2131939298357474</v>
+        <v>-0.1265731828444365</v>
       </c>
       <c r="L136" t="n">
-        <v>-0.08252398222738828</v>
+        <v>-0.1527172163563068</v>
       </c>
     </row>
     <row r="137">
@@ -6455,28 +6455,28 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0.3054557027591256</v>
+        <v>-0.1574377100683868</v>
       </c>
       <c r="F137" t="n">
-        <v>-0.1402023671623341</v>
+        <v>-0.5915798085135829</v>
       </c>
       <c r="G137" t="n">
-        <v>-0.3753502502817985</v>
+        <v>-0.641487098762004</v>
       </c>
       <c r="H137" t="n">
-        <v>-1.519701414655279</v>
+        <v>-1.679565990591784</v>
       </c>
       <c r="I137" t="n">
-        <v>-0.1587616793958851</v>
+        <v>-0.6198403190845366</v>
       </c>
       <c r="J137" t="n">
-        <v>1.657351672745981</v>
+        <v>0.9762799159417564</v>
       </c>
       <c r="K137" t="n">
-        <v>-0.460789465983148</v>
+        <v>-0.8219659627027948</v>
       </c>
       <c r="L137" t="n">
-        <v>-1.605106680149681</v>
+        <v>-1.729152998098828</v>
       </c>
     </row>
     <row r="138">
@@ -6499,28 +6499,28 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>3.912105643900653</v>
+        <v>3.090221968606957</v>
       </c>
       <c r="F138" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G138" t="n">
-        <v>2.452425278139895</v>
+        <v>1.916472264672757</v>
       </c>
       <c r="H138" t="n">
-        <v>-2.477697683612169</v>
+        <v>-2.794630548661019</v>
       </c>
       <c r="I138" t="n">
-        <v>6.597972642238521</v>
+        <v>6.074244260109572</v>
       </c>
       <c r="J138" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K138" t="n">
-        <v>3.99745954013287</v>
+        <v>3.777901317257375</v>
       </c>
       <c r="L138" t="n">
-        <v>0.5874124048584206</v>
+        <v>0.5409145276104026</v>
       </c>
     </row>
     <row r="139">
@@ -6543,28 +6543,28 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>-0.6459448828461005</v>
+        <v>-1.014140015687838</v>
       </c>
       <c r="F139" t="n">
-        <v>-0.04886532015104166</v>
+        <v>-0.5014343138829418</v>
       </c>
       <c r="G139" t="n">
-        <v>-0.2064308620245578</v>
+        <v>-0.4886853906648098</v>
       </c>
       <c r="H139" t="n">
-        <v>-0.8171708174202267</v>
+        <v>-0.8618519813410125</v>
       </c>
       <c r="I139" t="n">
-        <v>-1.271526775248996</v>
+        <v>-1.722287642574077</v>
       </c>
       <c r="J139" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K139" t="n">
-        <v>-0.5070257939285076</v>
+        <v>-0.8696710082867455</v>
       </c>
       <c r="L139" t="n">
-        <v>-0.5697504455625221</v>
+        <v>-0.6571766665139136</v>
       </c>
     </row>
     <row r="140">
@@ -6587,28 +6587,28 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.1855741276292446</v>
+        <v>-0.2653867941544839</v>
       </c>
       <c r="F140" t="n">
-        <v>-0.4142135081962119</v>
+        <v>-0.8620162924055066</v>
       </c>
       <c r="G140" t="n">
-        <v>0.7063835245193777</v>
+        <v>0.337031531937336</v>
       </c>
       <c r="H140" t="n">
-        <v>1.482020228076308</v>
+        <v>1.81430295802515</v>
       </c>
       <c r="I140" t="n">
-        <v>0.7259019840662839</v>
+        <v>0.2566205724431592</v>
       </c>
       <c r="J140" t="n">
-        <v>-0.3232649229385035</v>
+        <v>-0.6679809951180439</v>
       </c>
       <c r="K140" t="n">
-        <v>0.7342417793738382</v>
+        <v>0.4110259846977772</v>
       </c>
       <c r="L140" t="n">
-        <v>0.4047024811077454</v>
+        <v>0.3517422338013</v>
       </c>
     </row>
     <row r="141">
@@ -6631,28 +6631,28 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>0.8079380495801163</v>
+        <v>0.2950297274839773</v>
       </c>
       <c r="F141" t="n">
-        <v>-0.7795616962413823</v>
+        <v>-1.222598270928071</v>
       </c>
       <c r="G141" t="n">
-        <v>0.6787717014388672</v>
+        <v>0.3120543296522177</v>
       </c>
       <c r="H141" t="n">
-        <v>1.482020228076308</v>
+        <v>1.81430295802515</v>
       </c>
       <c r="I141" t="n">
-        <v>-0.02313380067694634</v>
+        <v>-0.4854700081883045</v>
       </c>
       <c r="J141" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K141" t="n">
-        <v>0.5386265457588553</v>
+        <v>0.209196945688755</v>
       </c>
       <c r="L141" t="n">
-        <v>0.282895865273962</v>
+        <v>0.2256273712618984</v>
       </c>
     </row>
     <row r="142">
@@ -6675,28 +6675,28 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>0.9737317173129305</v>
+        <v>0.4443210139860263</v>
       </c>
       <c r="F142" t="n">
-        <v>0.955842196973177</v>
+        <v>0.4901661270541116</v>
       </c>
       <c r="G142" t="n">
-        <v>0.4887373896494714</v>
+        <v>0.1401524080428742</v>
       </c>
       <c r="H142" t="n">
-        <v>-0.1146402201851745</v>
+        <v>-0.04413797209024053</v>
       </c>
       <c r="I142" t="n">
-        <v>-0.1186898061380168</v>
+        <v>-0.5801399999561044</v>
       </c>
       <c r="J142" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K142" t="n">
-        <v>-0.07845060028113612</v>
+        <v>-0.4274819319124332</v>
       </c>
       <c r="L142" t="n">
-        <v>-0.2652339059780635</v>
+        <v>-0.3418895101654093</v>
       </c>
     </row>
     <row r="143">
@@ -6719,28 +6719,28 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>-0.309256203757924</v>
+        <v>-0.7109638646375226</v>
       </c>
       <c r="F143" t="n">
-        <v>-0.7795616962413823</v>
+        <v>-1.222598270928071</v>
       </c>
       <c r="G143" t="n">
-        <v>-1.049403578423673</v>
+        <v>-1.251224683957539</v>
       </c>
       <c r="H143" t="n">
-        <v>0.204691869467122</v>
+        <v>0.3275502139328376</v>
       </c>
       <c r="I143" t="n">
-        <v>-0.4084402743102952</v>
+        <v>-0.8672038459616912</v>
       </c>
       <c r="J143" t="n">
-        <v>0.9499886028586654</v>
+        <v>0.3890438762775421</v>
       </c>
       <c r="K143" t="n">
-        <v>-0.7719955194615297</v>
+        <v>-1.143057615671694</v>
       </c>
       <c r="L143" t="n">
-        <v>-0.2652339059780635</v>
+        <v>-0.3418895101654093</v>
       </c>
     </row>
     <row r="144">
@@ -6763,28 +6763,28 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>-1.01579229548084</v>
+        <v>-1.347174424038563</v>
       </c>
       <c r="F144" t="n">
-        <v>-0.1402023671623341</v>
+        <v>-0.5915798085135829</v>
       </c>
       <c r="G144" t="n">
-        <v>-1.252431689309779</v>
+        <v>-1.43488058311282</v>
       </c>
       <c r="H144" t="n">
-        <v>-0.881037235350686</v>
+        <v>-0.9361896185456281</v>
       </c>
       <c r="I144" t="n">
-        <v>-1.484215948694605</v>
+        <v>-1.933004721024987</v>
       </c>
       <c r="J144" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K144" t="n">
-        <v>-1.643372469200999</v>
+        <v>-2.042114243984611</v>
       </c>
       <c r="L144" t="n">
-        <v>-1.178783524731439</v>
+        <v>-1.287750979210922</v>
       </c>
     </row>
     <row r="145">
@@ -6807,28 +6807,28 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>-0.4929045741696566</v>
+        <v>-0.8763326743013308</v>
       </c>
       <c r="F145" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G145" t="n">
-        <v>-0.35910800141091</v>
+        <v>-0.6267946268295815</v>
       </c>
       <c r="H145" t="n">
-        <v>-0.8171708174202267</v>
+        <v>-0.8618519813410125</v>
       </c>
       <c r="I145" t="n">
-        <v>0.13407124056546</v>
+        <v>-0.3297226023767628</v>
       </c>
       <c r="J145" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K145" t="n">
-        <v>0.5172867020917663</v>
+        <v>0.1871792323423162</v>
       </c>
       <c r="L145" t="n">
-        <v>0.4047024811077454</v>
+        <v>0.3517422338013</v>
       </c>
     </row>
     <row r="146">
@@ -6851,28 +6851,28 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>-1.625402858375341</v>
+        <v>-1.896107000561481</v>
       </c>
       <c r="F146" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G146" t="n">
-        <v>-1.580525116501728</v>
+        <v>-1.731668516147755</v>
       </c>
       <c r="H146" t="n">
-        <v>-0.881037235350686</v>
+        <v>-0.9361896185456281</v>
       </c>
       <c r="I146" t="n">
-        <v>-1.031095535701787</v>
+        <v>-1.484085727803484</v>
       </c>
       <c r="J146" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K146" t="n">
-        <v>-1.261033603498987</v>
+        <v>-1.647630213194249</v>
       </c>
       <c r="L146" t="n">
-        <v>-0.7524603693131972</v>
+        <v>-0.8463489603230161</v>
       </c>
     </row>
     <row r="147">
@@ -6895,28 +6895,28 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>-0.4622965124343679</v>
+        <v>-0.8487712060240294</v>
       </c>
       <c r="F147" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G147" t="n">
-        <v>0.8330730657123082</v>
+        <v>0.4516328130102317</v>
       </c>
       <c r="H147" t="n">
-        <v>0.843356048771715</v>
+        <v>1.070926585978994</v>
       </c>
       <c r="I147" t="n">
-        <v>0.1895553727686623</v>
+        <v>-0.2747529297373951</v>
       </c>
       <c r="J147" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K147" t="n">
-        <v>1.319309159913196</v>
+        <v>1.014678292279307</v>
       </c>
       <c r="L147" t="n">
-        <v>1.013735560276663</v>
+        <v>0.9823165464983086</v>
       </c>
     </row>
     <row r="148">
@@ -6939,28 +6939,28 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>-0.9851842337455512</v>
+        <v>-1.319612955761261</v>
       </c>
       <c r="F148" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G148" t="n">
-        <v>-1.003925281585185</v>
+        <v>-1.210085762546756</v>
       </c>
       <c r="H148" t="n">
-        <v>0.6517567949803371</v>
+        <v>0.8479136743651471</v>
       </c>
       <c r="I148" t="n">
-        <v>-1.160558510842592</v>
+        <v>-1.612348297295342</v>
       </c>
       <c r="J148" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K148" t="n">
-        <v>0.02824861805430907</v>
+        <v>-0.3173933651802393</v>
       </c>
       <c r="L148" t="n">
-        <v>-0.02162067431049654</v>
+        <v>-0.08965978508660589</v>
       </c>
     </row>
     <row r="149">
@@ -6983,28 +6983,28 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0.838546111315405</v>
+        <v>0.3225911957612786</v>
       </c>
       <c r="F149" t="n">
-        <v>1.41252743202964</v>
+        <v>0.9408936002073177</v>
       </c>
       <c r="G149" t="n">
-        <v>0.4513802172464277</v>
+        <v>0.1063597225983024</v>
       </c>
       <c r="H149" t="n">
-        <v>0.5240239591194186</v>
+        <v>0.6992383999559157</v>
       </c>
       <c r="I149" t="n">
-        <v>0.7474791465897515</v>
+        <v>0.2779976673584689</v>
       </c>
       <c r="J149" t="n">
-        <v>2.93060519854315</v>
+        <v>2.033304787337342</v>
       </c>
       <c r="K149" t="n">
-        <v>0.2949966638929221</v>
+        <v>-0.0421719483497545</v>
       </c>
       <c r="L149" t="n">
-        <v>1.500962023611796</v>
+        <v>1.486775996655915</v>
       </c>
     </row>
     <row r="150">
@@ -7027,28 +7027,28 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>-0.115405146101095</v>
+        <v>-0.5364078988812806</v>
       </c>
       <c r="F150" t="n">
-        <v>0.8645051499618843</v>
+        <v>0.4000206324234704</v>
       </c>
       <c r="G150" t="n">
-        <v>-0.182067488718225</v>
+        <v>-0.466646682766176</v>
       </c>
       <c r="H150" t="n">
-        <v>0.07695903360620339</v>
+        <v>0.1788749395236064</v>
       </c>
       <c r="I150" t="n">
-        <v>0.08475201194039136</v>
+        <v>-0.3785845336117563</v>
       </c>
       <c r="J150" t="n">
-        <v>2.364714742633297</v>
+        <v>1.563515955605971</v>
       </c>
       <c r="K150" t="n">
-        <v>-0.2971839978687987</v>
+        <v>-0.6531634937134307</v>
       </c>
       <c r="L150" t="n">
-        <v>-0.5088471376456304</v>
+        <v>-0.5941192352442127</v>
       </c>
     </row>
     <row r="151">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>0.6625497563374946</v>
+        <v>0.1641127531667958</v>
       </c>
       <c r="F151" t="n">
-        <v>1.595201526052225</v>
+        <v>1.1211845894686</v>
       </c>
       <c r="G151" t="n">
-        <v>0.4546286670206054</v>
+        <v>0.1092982169847869</v>
       </c>
       <c r="H151" t="n">
-        <v>0.9072224667021743</v>
+        <v>1.14526422318361</v>
       </c>
       <c r="I151" t="n">
-        <v>0.1803080174014619</v>
+        <v>-0.2839145418439564</v>
       </c>
       <c r="J151" t="n">
-        <v>2.364714742633297</v>
+        <v>1.563515955605971</v>
       </c>
       <c r="K151" t="n">
-        <v>0.3305630700047371</v>
+        <v>-0.005475759439023188</v>
       </c>
       <c r="L151" t="n">
-        <v>0.1610892494401786</v>
+        <v>0.09951250872249666</v>
       </c>
     </row>
     <row r="152">
@@ -7115,28 +7115,28 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>0.2085301739307112</v>
+        <v>-0.2447156929465078</v>
       </c>
       <c r="F152" t="n">
-        <v>0.1338087738715436</v>
+        <v>-0.3211433246216593</v>
       </c>
       <c r="G152" t="n">
-        <v>-0.10410469413796</v>
+        <v>-0.3961228174905479</v>
       </c>
       <c r="H152" t="n">
-        <v>-0.6894379815593081</v>
+        <v>-0.7131767069317813</v>
       </c>
       <c r="I152" t="n">
-        <v>0.2912762818078663</v>
+        <v>-0.173975196565221</v>
       </c>
       <c r="J152" t="n">
-        <v>0.2426255329713492</v>
+        <v>-0.1981921633866724</v>
       </c>
       <c r="K152" t="n">
-        <v>0.280770101448196</v>
+        <v>-0.05685042391404702</v>
       </c>
       <c r="L152" t="n">
-        <v>-0.2652339059780635</v>
+        <v>-0.3418895101654093</v>
       </c>
     </row>
     <row r="153">
@@ -7159,28 +7159,28 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>1.006890450859493</v>
+        <v>0.4741792712864361</v>
       </c>
       <c r="F153" t="n">
-        <v>1.686538573063518</v>
+        <v>1.211330084099241</v>
       </c>
       <c r="G153" t="n">
-        <v>0.2857092787633647</v>
+        <v>-0.04350349111240732</v>
       </c>
       <c r="H153" t="n">
-        <v>0.01309261567574409</v>
+        <v>0.1045373023189907</v>
       </c>
       <c r="I153" t="n">
-        <v>1.61364809931752</v>
+        <v>1.136135334673042</v>
       </c>
       <c r="J153" t="n">
-        <v>0.8085159888812021</v>
+        <v>0.2715966683446991</v>
       </c>
       <c r="K153" t="n">
-        <v>0.2060806486133844</v>
+        <v>-0.1339124206265828</v>
       </c>
       <c r="L153" t="n">
-        <v>0.2219925573570703</v>
+        <v>0.1625699399921975</v>
       </c>
     </row>
     <row r="154">
@@ -7203,28 +7203,28 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>-1.222396712194039</v>
+        <v>-1.533214334910347</v>
       </c>
       <c r="F154" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G154" t="n">
-        <v>-1.640621437324015</v>
+        <v>-1.786030662297719</v>
       </c>
       <c r="H154" t="n">
-        <v>-0.3062394739765523</v>
+        <v>-0.2671508837040874</v>
       </c>
       <c r="I154" t="n">
-        <v>-1.151311155475392</v>
+        <v>-1.603186685188781</v>
       </c>
       <c r="J154" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K154" t="n">
-        <v>-1.566904696060596</v>
+        <v>-1.963217437826539</v>
       </c>
       <c r="L154" t="n">
-        <v>-0.2043305980611717</v>
+        <v>-0.2788320788957084</v>
       </c>
     </row>
     <row r="155">
@@ -7247,28 +7247,28 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>-1.04129901359358</v>
+        <v>-1.370142314269647</v>
       </c>
       <c r="F155" t="n">
-        <v>0.7731681029505918</v>
+        <v>0.3098751377928292</v>
       </c>
       <c r="G155" t="n">
-        <v>-0.570257236732461</v>
+        <v>-0.8177967619510743</v>
       </c>
       <c r="H155" t="n">
-        <v>-0.05077380225471521</v>
+        <v>0.0301996651143751</v>
       </c>
       <c r="I155" t="n">
-        <v>-0.867725590881247</v>
+        <v>-1.322230580587568</v>
       </c>
       <c r="J155" t="n">
-        <v>0.5255707609262757</v>
+        <v>0.0367022524790134</v>
       </c>
       <c r="K155" t="n">
-        <v>-0.0002045068351429837</v>
+        <v>-0.3467503163088244</v>
       </c>
       <c r="L155" t="n">
-        <v>0.4047024811077454</v>
+        <v>0.3517422338013</v>
       </c>
     </row>
     <row r="156">
@@ -7291,28 +7291,28 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>5.998555185522839</v>
+        <v>4.968995389509668</v>
       </c>
       <c r="F156" t="n">
-        <v>-0.6882246492300897</v>
+        <v>-1.13245277629743</v>
       </c>
       <c r="G156" t="n">
-        <v>5.678135903898358</v>
+        <v>4.83439719045187</v>
       </c>
       <c r="H156" t="n">
-        <v>1.162688138424012</v>
+        <v>1.442614772002072</v>
       </c>
       <c r="I156" t="n">
-        <v>0.8091281823710873</v>
+        <v>0.3390750814022107</v>
       </c>
       <c r="J156" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K156" t="n">
-        <v>1.410003495498324</v>
+        <v>1.108253574001672</v>
       </c>
       <c r="L156" t="n">
-        <v>0.1610892494401786</v>
+        <v>0.09951250872249666</v>
       </c>
     </row>
     <row r="157">
@@ -7335,28 +7335,28 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>0.2646449537787406</v>
+        <v>-0.194186334438122</v>
       </c>
       <c r="F157" t="n">
-        <v>-0.2315394141736267</v>
+        <v>-0.6817253031442242</v>
       </c>
       <c r="G157" t="n">
-        <v>0.2337340823765214</v>
+        <v>-0.09051940129615939</v>
       </c>
       <c r="H157" t="n">
-        <v>-0.3701058919070117</v>
+        <v>-0.3414885209087031</v>
       </c>
       <c r="I157" t="n">
-        <v>-0.1803388419193526</v>
+        <v>-0.6412174139998463</v>
       </c>
       <c r="J157" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K157" t="n">
-        <v>0.2167505704469289</v>
+        <v>-0.1229035639533634</v>
       </c>
       <c r="L157" t="n">
-        <v>0.8919289444428792</v>
+        <v>0.8562016839589068</v>
       </c>
     </row>
     <row r="158">
@@ -7379,28 +7379,28 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>-0.9826335619342771</v>
+        <v>-1.317316166738153</v>
       </c>
       <c r="F158" t="n">
-        <v>0.955842196973177</v>
+        <v>0.4901661270541116</v>
       </c>
       <c r="G158" t="n">
-        <v>-0.26003028329849</v>
+        <v>-0.5371705480418041</v>
       </c>
       <c r="H158" t="n">
-        <v>-1.775167086377116</v>
+        <v>-1.976916539410247</v>
       </c>
       <c r="I158" t="n">
-        <v>-1.256114516303662</v>
+        <v>-1.707018289063142</v>
       </c>
       <c r="J158" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K158" t="n">
-        <v>-0.6457347777645862</v>
+        <v>-1.012786145038598</v>
       </c>
       <c r="L158" t="n">
-        <v>-2.27504306723549</v>
+        <v>-2.422784742065538</v>
       </c>
     </row>
     <row r="159">
@@ -7423,28 +7423,28 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>-0.5923807748093451</v>
+        <v>-0.9659074462025603</v>
       </c>
       <c r="F159" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G159" t="n">
-        <v>-0.7375524001026128</v>
+        <v>-0.9691292228550263</v>
       </c>
       <c r="H159" t="n">
-        <v>-0.1146402201851745</v>
+        <v>-0.04413797209024053</v>
       </c>
       <c r="I159" t="n">
-        <v>-0.0940301918254825</v>
+        <v>-0.5557090343386076</v>
       </c>
       <c r="J159" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K159" t="n">
-        <v>0.09048982874998542</v>
+        <v>-0.2531750345864595</v>
       </c>
       <c r="L159" t="n">
-        <v>-0.3261372138949552</v>
+        <v>-0.4049469414351101</v>
       </c>
     </row>
     <row r="160">
@@ -7467,28 +7467,28 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>0.4278879497002807</v>
+        <v>-0.04719183695918137</v>
       </c>
       <c r="F160" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G160" t="n">
-        <v>-0.1804432638311361</v>
+        <v>-0.4651774355729337</v>
       </c>
       <c r="H160" t="n">
-        <v>-0.8171708174202267</v>
+        <v>-0.8618519813410125</v>
       </c>
       <c r="I160" t="n">
-        <v>0.266616667495332</v>
+        <v>-0.1984061621827177</v>
       </c>
       <c r="J160" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K160" t="n">
-        <v>0.02291365713753681</v>
+        <v>-0.322897793516849</v>
       </c>
       <c r="L160" t="n">
-        <v>1.074638868193554</v>
+        <v>1.045373977768009</v>
       </c>
     </row>
     <row r="161">
@@ -7511,28 +7511,28 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>-1.268308804796972</v>
+        <v>-1.574556537326299</v>
       </c>
       <c r="F161" t="n">
-        <v>0.7731681029505918</v>
+        <v>0.3098751377928292</v>
       </c>
       <c r="G161" t="n">
-        <v>-0.8155151946828778</v>
+        <v>-1.039653088130654</v>
       </c>
       <c r="H161" t="n">
-        <v>-1.008770071211605</v>
+        <v>-1.084864892954859</v>
       </c>
       <c r="I161" t="n">
-        <v>-0.4053578225212284</v>
+        <v>-0.8641499752595041</v>
       </c>
       <c r="J161" t="n">
-        <v>1.232933830813592</v>
+        <v>0.6239382921432278</v>
       </c>
       <c r="K161" t="n">
-        <v>-0.3772084116203826</v>
+        <v>-0.7357299187625762</v>
       </c>
       <c r="L161" t="n">
-        <v>0.1001859415232869</v>
+        <v>0.0364550774527958</v>
       </c>
     </row>
     <row r="162">
@@ -7555,28 +7555,28 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>0.9660797018791083</v>
+        <v>0.437430646916701</v>
       </c>
       <c r="F162" t="n">
-        <v>2.691246090187736</v>
+        <v>2.202930525036295</v>
       </c>
       <c r="G162" t="n">
-        <v>1.367443053564541</v>
+        <v>0.9350151395869327</v>
       </c>
       <c r="H162" t="n">
-        <v>0.9072224667021743</v>
+        <v>1.14526422318361</v>
       </c>
       <c r="I162" t="n">
-        <v>1.234506529262305</v>
+        <v>0.7605092383040296</v>
       </c>
       <c r="J162" t="n">
-        <v>-0.3232649229385035</v>
+        <v>-0.6679809951180439</v>
       </c>
       <c r="K162" t="n">
-        <v>1.771002517533247</v>
+        <v>1.480719891445595</v>
       </c>
       <c r="L162" t="n">
-        <v>0.8310256365259875</v>
+        <v>0.793144252689206</v>
       </c>
     </row>
     <row r="163">
@@ -7599,28 +7599,28 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>0.3156583900042219</v>
+        <v>-0.148250553975953</v>
       </c>
       <c r="F163" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G163" t="n">
-        <v>0.004718373296993109</v>
+        <v>-0.297683255543317</v>
       </c>
       <c r="H163" t="n">
-        <v>-0.1785066381156338</v>
+        <v>-0.1184756092948562</v>
       </c>
       <c r="I163" t="n">
-        <v>0.08475201194039136</v>
+        <v>-0.3785845336117563</v>
       </c>
       <c r="J163" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K163" t="n">
-        <v>-0.553262121873867</v>
+        <v>-0.9173760538706962</v>
       </c>
       <c r="L163" t="n">
-        <v>-0.3870405218118469</v>
+        <v>-0.468004372704811</v>
       </c>
     </row>
     <row r="164">
@@ -7643,28 +7643,28 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>0.05548986525426733</v>
+        <v>-0.3825230343330147</v>
       </c>
       <c r="F164" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G164" t="n">
-        <v>-0.1447103163151814</v>
+        <v>-0.4328539973216042</v>
       </c>
       <c r="H164" t="n">
-        <v>-0.1146402201851745</v>
+        <v>-0.04413797209024053</v>
       </c>
       <c r="I164" t="n">
-        <v>0.8368702484726884</v>
+        <v>0.3665599177218946</v>
       </c>
       <c r="J164" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K164" t="n">
-        <v>0.122499594250619</v>
+        <v>-0.2201484645668013</v>
       </c>
       <c r="L164" t="n">
-        <v>0.3437991731908537</v>
+        <v>0.2886848025315992</v>
       </c>
     </row>
     <row r="165">
@@ -7687,28 +7687,28 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>-0.2352867212309761</v>
+        <v>-0.6443569829673776</v>
       </c>
       <c r="F165" t="n">
-        <v>-0.4142135081962119</v>
+        <v>-0.8620162924055066</v>
       </c>
       <c r="G165" t="n">
-        <v>0.514724987842893</v>
+        <v>0.1636603631347503</v>
       </c>
       <c r="H165" t="n">
-        <v>-1.200369325002982</v>
+        <v>-1.307877804568706</v>
       </c>
       <c r="I165" t="n">
-        <v>-0.02005134888787954</v>
+        <v>-0.4824161374861174</v>
       </c>
       <c r="J165" t="n">
-        <v>1.374406444791055</v>
+        <v>0.7413855000760706</v>
       </c>
       <c r="K165" t="n">
-        <v>0.4265923665066378</v>
+        <v>0.09360395061995135</v>
       </c>
       <c r="L165" t="n">
-        <v>-0.02162067431049654</v>
+        <v>-0.08965978508660589</v>
       </c>
     </row>
     <row r="166">
@@ -7731,28 +7731,28 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>0.2059795021194371</v>
+        <v>-0.2470124819696163</v>
       </c>
       <c r="F166" t="n">
-        <v>0.1338087738715436</v>
+        <v>-0.3211433246216593</v>
       </c>
       <c r="G166" t="n">
-        <v>-0.2291700104438017</v>
+        <v>-0.5092548513702013</v>
       </c>
       <c r="H166" t="n">
-        <v>-0.7533043994897675</v>
+        <v>-0.7875143441363969</v>
       </c>
       <c r="I166" t="n">
-        <v>0.2974411853859999</v>
+        <v>-0.1678674551608468</v>
       </c>
       <c r="J166" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K166" t="n">
-        <v>-0.0944554830314529</v>
+        <v>-0.4439952169222623</v>
       </c>
       <c r="L166" t="n">
-        <v>0.4047024811077454</v>
+        <v>0.3517422338013</v>
       </c>
     </row>
     <row r="167">
@@ -7775,28 +7775,28 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>0.2391382356659999</v>
+        <v>-0.2171542246692065</v>
       </c>
       <c r="F167" t="n">
-        <v>1.503864479040933</v>
+        <v>1.031039094837959</v>
       </c>
       <c r="G167" t="n">
-        <v>0.5553306100201143</v>
+        <v>0.2003915429658066</v>
       </c>
       <c r="H167" t="n">
-        <v>0.843356048771715</v>
+        <v>1.070926585978994</v>
       </c>
       <c r="I167" t="n">
-        <v>0.3590902211673357</v>
+        <v>-0.1067900411171049</v>
       </c>
       <c r="J167" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K167" t="n">
-        <v>0.3590161948941892</v>
+        <v>0.02388119168956186</v>
       </c>
       <c r="L167" t="n">
-        <v>1.744575255279363</v>
+        <v>1.739005721734719</v>
       </c>
     </row>
     <row r="168">
@@ -7819,28 +7819,28 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>-1.768240479806689</v>
+        <v>-2.024727185855554</v>
       </c>
       <c r="F168" t="n">
-        <v>-0.7795616962413823</v>
+        <v>-1.222598270928071</v>
       </c>
       <c r="G168" t="n">
-        <v>-0.6222324331193042</v>
+        <v>-0.8648126721348264</v>
       </c>
       <c r="H168" t="n">
-        <v>-0.1146402201851745</v>
+        <v>-0.04413797209024053</v>
       </c>
       <c r="I168" t="n">
-        <v>-1.915759199163956</v>
+        <v>-2.36054661933118</v>
       </c>
       <c r="J168" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K168" t="n">
-        <v>-0.5923851685968636</v>
+        <v>-0.9577418616725006</v>
       </c>
       <c r="L168" t="n">
-        <v>0.7701223286090958</v>
+        <v>0.7300868214195052</v>
       </c>
     </row>
     <row r="169">
@@ -7863,28 +7863,28 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>0.1192566605361189</v>
+        <v>-0.3251033087553035</v>
       </c>
       <c r="F169" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G169" t="n">
-        <v>-0.07649287105744954</v>
+        <v>-0.3711456152054296</v>
       </c>
       <c r="H169" t="n">
-        <v>0.6517567949803371</v>
+        <v>0.8479136743651471</v>
       </c>
       <c r="I169" t="n">
-        <v>-0.2543176848569557</v>
+        <v>-0.7145103108523365</v>
       </c>
       <c r="J169" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1509527191400711</v>
+        <v>-0.1907915134382163</v>
       </c>
       <c r="L169" t="n">
-        <v>0.5265090969415289</v>
+        <v>0.4778570963407018</v>
       </c>
     </row>
     <row r="170">
@@ -7907,28 +7907,28 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>0.759475285165909</v>
+        <v>0.2513907360449167</v>
       </c>
       <c r="F170" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G170" t="n">
-        <v>-0.05700217241238331</v>
+        <v>-0.3535146488865226</v>
       </c>
       <c r="H170" t="n">
-        <v>-0.4339723098374709</v>
+        <v>-0.4158261581133187</v>
       </c>
       <c r="I170" t="n">
-        <v>0.519377714198809</v>
+        <v>0.05201123539662394</v>
       </c>
       <c r="J170" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K170" t="n">
-        <v>-0.7737738397671204</v>
+        <v>-1.14489242511723</v>
       </c>
       <c r="L170" t="n">
-        <v>-2.335946375152381</v>
+        <v>-2.485842173335238</v>
       </c>
     </row>
     <row r="171">
@@ -7951,28 +7951,28 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>0.03253381895280075</v>
+        <v>-0.4031941355409907</v>
       </c>
       <c r="F171" t="n">
-        <v>0.7731681029505918</v>
+        <v>0.3098751377928292</v>
       </c>
       <c r="G171" t="n">
-        <v>-0.4240769968944642</v>
+        <v>-0.6855645145592716</v>
       </c>
       <c r="H171" t="n">
-        <v>-0.5617051456983895</v>
+        <v>-0.5645014325225499</v>
       </c>
       <c r="I171" t="n">
-        <v>-0.09711264361454928</v>
+        <v>-0.5587629050407947</v>
       </c>
       <c r="J171" t="n">
-        <v>-0.3232649229385035</v>
+        <v>-0.6679809951180439</v>
       </c>
       <c r="K171" t="n">
-        <v>-0.9409359484926513</v>
+        <v>-1.317364512997667</v>
       </c>
       <c r="L171" t="n">
-        <v>-1.726913295983465</v>
+        <v>-1.85526786063823</v>
       </c>
     </row>
     <row r="172">
@@ -7995,28 +7995,28 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>0.2544422665336443</v>
+        <v>-0.2033734905305558</v>
       </c>
       <c r="F172" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G172" t="n">
-        <v>0.2987030778600755</v>
+        <v>-0.0317495135664693</v>
       </c>
       <c r="H172" t="n">
-        <v>0.5878903770498778</v>
+        <v>0.7735760371605315</v>
       </c>
       <c r="I172" t="n">
-        <v>0.02926787973718911</v>
+        <v>-0.4335542062511239</v>
       </c>
       <c r="J172" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K172" t="n">
-        <v>0.4408189289513638</v>
+        <v>0.1082824261842439</v>
       </c>
       <c r="L172" t="n">
-        <v>0.2219925573570703</v>
+        <v>0.1625699399921975</v>
       </c>
     </row>
     <row r="173">
@@ -8039,28 +8039,28 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>0.5120601194723248</v>
+        <v>0.02860220080339738</v>
       </c>
       <c r="F173" t="n">
-        <v>1.321190385018347</v>
+        <v>0.8507481055766765</v>
       </c>
       <c r="G173" t="n">
-        <v>-0.536148514103595</v>
+        <v>-0.786942570892987</v>
       </c>
       <c r="H173" t="n">
-        <v>-0.1146402201851745</v>
+        <v>-0.04413797209024053</v>
       </c>
       <c r="I173" t="n">
-        <v>-0.06320567393481459</v>
+        <v>-0.5251703273167367</v>
       </c>
       <c r="J173" t="n">
-        <v>1.798824286723445</v>
+        <v>1.093727123874599</v>
       </c>
       <c r="K173" t="n">
-        <v>-0.6510697386813585</v>
+        <v>-1.018290573375207</v>
       </c>
       <c r="L173" t="n">
-        <v>-0.813363677230089</v>
+        <v>-0.909406391592717</v>
       </c>
     </row>
     <row r="174">
@@ -8083,28 +8083,28 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>0.8946608911634345</v>
+        <v>0.3731205542696645</v>
       </c>
       <c r="F174" t="n">
-        <v>0.8645051499618843</v>
+        <v>0.4000206324234704</v>
       </c>
       <c r="G174" t="n">
-        <v>1.315467857177698</v>
+        <v>0.8879992294031807</v>
       </c>
       <c r="H174" t="n">
-        <v>0.3324247053280406</v>
+        <v>0.4762254883420689</v>
       </c>
       <c r="I174" t="n">
-        <v>1.135868072012167</v>
+        <v>0.6627853758340426</v>
       </c>
       <c r="J174" t="n">
-        <v>-0.3232649229385035</v>
+        <v>-0.6679809951180439</v>
       </c>
       <c r="K174" t="n">
-        <v>1.155703691798847</v>
+        <v>0.8458758232899432</v>
       </c>
       <c r="L174" t="n">
-        <v>1.379155407778013</v>
+        <v>1.360661134116514</v>
       </c>
     </row>
     <row r="175">
@@ -8127,28 +8127,28 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>-1.755487120750319</v>
+        <v>-2.013243240740012</v>
       </c>
       <c r="F175" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G175" t="n">
-        <v>-0.437070795991175</v>
+        <v>-0.6973184921052096</v>
       </c>
       <c r="H175" t="n">
-        <v>-0.1785066381156338</v>
+        <v>-0.1184756092948562</v>
       </c>
       <c r="I175" t="n">
-        <v>-1.656833248882345</v>
+        <v>-2.104021480347464</v>
       </c>
       <c r="J175" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K175" t="n">
-        <v>-0.4252230598713329</v>
+        <v>-0.7852697737920635</v>
       </c>
       <c r="L175" t="n">
-        <v>-0.3261372138949552</v>
+        <v>-0.4049469414351101</v>
       </c>
     </row>
     <row r="176">
@@ -8171,28 +8171,28 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>-0.8525492995592998</v>
+        <v>-1.200179926559622</v>
       </c>
       <c r="F176" t="n">
-        <v>-0.04886532015104166</v>
+        <v>-0.5014343138829418</v>
       </c>
       <c r="G176" t="n">
-        <v>-1.075391176617094</v>
+        <v>-1.274732639049415</v>
       </c>
       <c r="H176" t="n">
-        <v>0.5878903770498778</v>
+        <v>0.7735760371605315</v>
       </c>
       <c r="I176" t="n">
-        <v>-1.376330136077267</v>
+        <v>-1.826119246448439</v>
       </c>
       <c r="J176" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K176" t="n">
-        <v>-1.415747470085382</v>
+        <v>-1.80725863495593</v>
       </c>
       <c r="L176" t="n">
-        <v>-0.02162067431049654</v>
+        <v>-0.08965978508660589</v>
       </c>
     </row>
     <row r="177">
@@ -8215,28 +8215,28 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>-0.9826335619342771</v>
+        <v>-1.317316166738153</v>
       </c>
       <c r="F177" t="n">
-        <v>0.4078199149054214</v>
+        <v>-0.05070684072973568</v>
       </c>
       <c r="G177" t="n">
-        <v>-1.340139833212577</v>
+        <v>-1.514219931547902</v>
       </c>
       <c r="H177" t="n">
-        <v>-0.2423730560460931</v>
+        <v>-0.1928132464994718</v>
       </c>
       <c r="I177" t="n">
-        <v>-0.9324570784516496</v>
+        <v>-1.386361865333497</v>
       </c>
       <c r="J177" t="n">
-        <v>-0.04031969498357715</v>
+        <v>-0.4330865792523581</v>
       </c>
       <c r="K177" t="n">
-        <v>-1.202349033414492</v>
+        <v>-1.587081501491542</v>
       </c>
       <c r="L177" t="n">
-        <v>-0.2652339059780635</v>
+        <v>-0.3418895101654093</v>
       </c>
     </row>
     <row r="178">
@@ -8259,28 +8259,28 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>-1.742733761693948</v>
+        <v>-2.00175929562447</v>
       </c>
       <c r="F178" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G178" t="n">
-        <v>-1.135487497439382</v>
+        <v>-1.329094785199378</v>
       </c>
       <c r="H178" t="n">
-        <v>-0.3701058919070117</v>
+        <v>-0.3414885209087031</v>
       </c>
       <c r="I178" t="n">
-        <v>-0.5656453155527015</v>
+        <v>-1.022951251773233</v>
       </c>
       <c r="J178" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K178" t="n">
-        <v>-0.179814857699809</v>
+        <v>-0.5320660703080174</v>
       </c>
       <c r="L178" t="n">
-        <v>-1.056976908897656</v>
+        <v>-1.16163611667152</v>
       </c>
     </row>
     <row r="179">
@@ -8303,28 +8303,28 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>-1.352480974569016</v>
+        <v>-1.650350575088878</v>
       </c>
       <c r="F179" t="n">
-        <v>0.2251458208828362</v>
+        <v>-0.2309978299910181</v>
       </c>
       <c r="G179" t="n">
-        <v>-0.7326797254413463</v>
+        <v>-0.9647214812752996</v>
       </c>
       <c r="H179" t="n">
-        <v>-0.3701058919070117</v>
+        <v>-0.3414885209087031</v>
       </c>
       <c r="I179" t="n">
-        <v>-1.397907298600735</v>
+        <v>-1.847496341363748</v>
       </c>
       <c r="J179" t="n">
-        <v>0.2426255329713492</v>
+        <v>-0.1981921633866724</v>
       </c>
       <c r="K179" t="n">
-        <v>-0.3949916146762901</v>
+        <v>-0.7540780132179419</v>
       </c>
       <c r="L179" t="n">
-        <v>-1.848719911817248</v>
+        <v>-1.981382723177631</v>
       </c>
     </row>
     <row r="180">
@@ -8347,28 +8347,28 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>-0.8015358633338185</v>
+        <v>-1.154244146097453</v>
       </c>
       <c r="F180" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G180" t="n">
-        <v>-0.8934779892631427</v>
+        <v>-1.110176953406283</v>
       </c>
       <c r="H180" t="n">
-        <v>-0.6894379815593081</v>
+        <v>-0.7131767069317813</v>
       </c>
       <c r="I180" t="n">
-        <v>-1.03726043927992</v>
+        <v>-1.490193469207858</v>
       </c>
       <c r="J180" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K180" t="n">
-        <v>-1.024517002855417</v>
+        <v>-1.403600556937886</v>
       </c>
       <c r="L180" t="n">
-        <v>-1.117880216814547</v>
+        <v>-1.224693547941221</v>
       </c>
     </row>
     <row r="181">
@@ -8391,28 +8391,28 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>-0.06439170987561374</v>
+        <v>-0.4904721184191117</v>
       </c>
       <c r="F181" t="n">
-        <v>0.3164828678941288</v>
+        <v>-0.1408523353603769</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1687650868929673</v>
+        <v>-0.1492892890258495</v>
       </c>
       <c r="H181" t="n">
-        <v>0.01309261567574409</v>
+        <v>0.1045373023189907</v>
       </c>
       <c r="I181" t="n">
-        <v>-0.131019613294284</v>
+        <v>-0.5923554827648528</v>
       </c>
       <c r="J181" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K181" t="n">
-        <v>0.06025838355494263</v>
+        <v>-0.2843667951605811</v>
       </c>
       <c r="L181" t="n">
-        <v>-0.6915570613963055</v>
+        <v>-0.7832915290533152</v>
       </c>
     </row>
     <row r="182">
@@ -8435,28 +8435,28 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>0.241688907477274</v>
+        <v>-0.214857435646098</v>
       </c>
       <c r="F182" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G182" t="n">
-        <v>0.5991846819715134</v>
+        <v>0.2400612171833474</v>
       </c>
       <c r="H182" t="n">
-        <v>0.5878903770498778</v>
+        <v>0.7735760371605315</v>
       </c>
       <c r="I182" t="n">
-        <v>0.1988027281358626</v>
+        <v>-0.2655913176308338</v>
       </c>
       <c r="J182" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K182" t="n">
-        <v>0.6168726392048485</v>
+        <v>0.2899285612923638</v>
       </c>
       <c r="L182" t="n">
-        <v>0.8919289444428792</v>
+        <v>0.8562016839589068</v>
       </c>
     </row>
     <row r="183">
@@ -8479,28 +8479,28 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>0.5758269147541764</v>
+        <v>0.08602192638110856</v>
       </c>
       <c r="F183" t="n">
-        <v>-0.7795616962413823</v>
+        <v>-1.222598270928071</v>
       </c>
       <c r="G183" t="n">
-        <v>0.003094148409904254</v>
+        <v>-0.2991525027365592</v>
       </c>
       <c r="H183" t="n">
-        <v>-0.3701058919070117</v>
+        <v>-0.3414885209087031</v>
       </c>
       <c r="I183" t="n">
-        <v>-0.04779341498948067</v>
+        <v>-0.5099009738058012</v>
       </c>
       <c r="J183" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K183" t="n">
-        <v>-0.4999125127061446</v>
+        <v>-0.8623317705045992</v>
       </c>
       <c r="L183" t="n">
-        <v>-0.813363677230089</v>
+        <v>-0.909406391592717</v>
       </c>
     </row>
     <row r="184">
@@ -8523,28 +8523,28 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>-1.520825314113105</v>
+        <v>-1.801938650614035</v>
       </c>
       <c r="F184" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G184" t="n">
-        <v>-1.522053020566529</v>
+        <v>-1.678775617191034</v>
       </c>
       <c r="H184" t="n">
-        <v>-0.3701058919070117</v>
+        <v>-0.3414885209087031</v>
       </c>
       <c r="I184" t="n">
-        <v>-1.659915700671412</v>
+        <v>-2.107075351049651</v>
       </c>
       <c r="J184" t="n">
-        <v>0.667043374903739</v>
+        <v>0.1541494604118563</v>
       </c>
       <c r="K184" t="n">
-        <v>-1.652264070728953</v>
+        <v>-2.051288291212294</v>
       </c>
       <c r="L184" t="n">
-        <v>0.1001859415232869</v>
+        <v>0.0364550774527958</v>
       </c>
     </row>
     <row r="185">
@@ -8567,28 +8567,28 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-0.4393404661329013</v>
+        <v>-0.8281001048160535</v>
       </c>
       <c r="F185" t="n">
-        <v>1.321190385018347</v>
+        <v>0.8507481055766765</v>
       </c>
       <c r="G185" t="n">
-        <v>-1.120869473455582</v>
+        <v>-1.315871560460198</v>
       </c>
       <c r="H185" t="n">
-        <v>-1.519701414655279</v>
+        <v>-1.679565990591784</v>
       </c>
       <c r="I185" t="n">
-        <v>-0.8492308801468462</v>
+        <v>-1.303907356374446</v>
       </c>
       <c r="J185" t="n">
-        <v>-0.04031969498357715</v>
+        <v>-0.4330865792523581</v>
       </c>
       <c r="K185" t="n">
-        <v>-1.076088291717548</v>
+        <v>-1.456810030858446</v>
       </c>
       <c r="L185" t="n">
-        <v>-1.605106680149681</v>
+        <v>-1.729152998098828</v>
       </c>
     </row>
     <row r="186">
@@ -8611,28 +8611,28 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>0.2748476410238369</v>
+        <v>-0.1849991783456882</v>
       </c>
       <c r="F186" t="n">
-        <v>-0.7795616962413823</v>
+        <v>-1.222598270928071</v>
       </c>
       <c r="G186" t="n">
-        <v>0.8850482620991516</v>
+        <v>0.4986487231939838</v>
       </c>
       <c r="H186" t="n">
-        <v>-0.9449036532811453</v>
+        <v>-1.010527255750244</v>
       </c>
       <c r="I186" t="n">
-        <v>0.6950774661756161</v>
+        <v>0.2260818654212883</v>
       </c>
       <c r="J186" t="n">
-        <v>-0.04031969498357715</v>
+        <v>-0.4330865792523581</v>
       </c>
       <c r="K186" t="n">
-        <v>0.3714644370333244</v>
+        <v>0.03672485780831782</v>
       </c>
       <c r="L186" t="n">
-        <v>0.7701223286090958</v>
+        <v>0.7300868214195052</v>
       </c>
     </row>
     <row r="187">
@@ -8655,28 +8655,28 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>1.172684118592308</v>
+        <v>0.6234705577884853</v>
       </c>
       <c r="F187" t="n">
-        <v>-0.04886532015104166</v>
+        <v>-0.5014343138829418</v>
       </c>
       <c r="G187" t="n">
-        <v>2.491406675430027</v>
+        <v>1.951734197310572</v>
       </c>
       <c r="H187" t="n">
-        <v>3.078680676337791</v>
+        <v>3.672743888140541</v>
       </c>
       <c r="I187" t="n">
-        <v>1.1142909094887</v>
+        <v>0.6414082809187329</v>
       </c>
       <c r="J187" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K187" t="n">
-        <v>2.950028880139916</v>
+        <v>2.697198553836337</v>
       </c>
       <c r="L187" t="n">
-        <v>1.927285179030038</v>
+        <v>1.928178015543821</v>
       </c>
     </row>
     <row r="188">
@@ -8699,28 +8699,28 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>-0.4316884506990791</v>
+        <v>-0.8212097377467281</v>
       </c>
       <c r="F188" t="n">
-        <v>0.4078199149054214</v>
+        <v>-0.05070684072973568</v>
       </c>
       <c r="G188" t="n">
-        <v>0.3230664511664084</v>
+        <v>-0.009710805667835512</v>
       </c>
       <c r="H188" t="n">
-        <v>1.034955302563093</v>
+        <v>1.293939497592841</v>
       </c>
       <c r="I188" t="n">
-        <v>-0.7844993925764436</v>
+        <v>-1.239776071628517</v>
       </c>
       <c r="J188" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K188" t="n">
-        <v>-0.5817152467633191</v>
+        <v>-0.9467330049992813</v>
       </c>
       <c r="L188" t="n">
-        <v>-0.3870405218118469</v>
+        <v>-0.468004372704811</v>
       </c>
     </row>
     <row r="189">
@@ -8743,28 +8743,28 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>-0.1205064897236432</v>
+        <v>-0.5410014769274976</v>
       </c>
       <c r="F189" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G189" t="n">
-        <v>0.4562528919076943</v>
+        <v>0.1107674641780292</v>
       </c>
       <c r="H189" t="n">
-        <v>0.4601575411889592</v>
+        <v>0.6249007627513001</v>
       </c>
       <c r="I189" t="n">
-        <v>-0.1464318722396179</v>
+        <v>-0.6076248362757882</v>
       </c>
       <c r="J189" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K189" t="n">
-        <v>0.6097593579824854</v>
+        <v>0.2825893235102176</v>
       </c>
       <c r="L189" t="n">
-        <v>0.1001859415232869</v>
+        <v>0.0364550774527958</v>
       </c>
     </row>
     <row r="190">
@@ -8787,28 +8787,28 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>0.440641308756651</v>
+        <v>-0.03570789184363914</v>
       </c>
       <c r="F190" t="n">
-        <v>0.04247172686025093</v>
+        <v>-0.4112888192523005</v>
       </c>
       <c r="G190" t="n">
-        <v>0.5878151077618914</v>
+        <v>0.2297764868306516</v>
       </c>
       <c r="H190" t="n">
-        <v>0.07695903360620339</v>
+        <v>0.1788749395236064</v>
       </c>
       <c r="I190" t="n">
-        <v>0.3066885407532002</v>
+        <v>-0.1587058430542855</v>
       </c>
       <c r="J190" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K190" t="n">
-        <v>0.807152911903059</v>
+        <v>0.4862531719647764</v>
       </c>
       <c r="L190" t="n">
-        <v>1.62276863944558</v>
+        <v>1.612890859195317</v>
       </c>
     </row>
     <row r="191">
@@ -8831,28 +8831,28 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>1.2619576319869</v>
+        <v>0.7038581735972809</v>
       </c>
       <c r="F191" t="n">
-        <v>2.051886761108688</v>
+        <v>1.571912062621806</v>
       </c>
       <c r="G191" t="n">
-        <v>2.432934579494828</v>
+        <v>1.89884129835385</v>
       </c>
       <c r="H191" t="n">
-        <v>0.843356048771715</v>
+        <v>1.070926585978994</v>
       </c>
       <c r="I191" t="n">
-        <v>1.826337272763128</v>
+        <v>1.346852413123952</v>
       </c>
       <c r="J191" t="n">
-        <v>1.374406444791055</v>
+        <v>0.7413855000760706</v>
       </c>
       <c r="K191" t="n">
-        <v>2.18001618781912</v>
+        <v>1.902726063919005</v>
       </c>
       <c r="L191" t="n">
-        <v>2.049091794863822</v>
+        <v>2.054292878083223</v>
       </c>
     </row>
     <row r="192">
@@ -8875,28 +8875,28 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>-1.870267352257651</v>
+        <v>-2.116598746779892</v>
       </c>
       <c r="F192" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G192" t="n">
-        <v>-1.174468894729514</v>
+        <v>-1.364356717837192</v>
       </c>
       <c r="H192" t="n">
-        <v>-1.328102160863901</v>
+        <v>-1.456553078977938</v>
       </c>
       <c r="I192" t="n">
-        <v>-1.342423166397533</v>
+        <v>-1.792526668724381</v>
       </c>
       <c r="J192" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K192" t="n">
-        <v>-0.8591332144354766</v>
+        <v>-1.232963278502985</v>
       </c>
       <c r="L192" t="n">
-        <v>-1.056976908897656</v>
+        <v>-1.16163611667152</v>
       </c>
     </row>
     <row r="193">
@@ -8919,28 +8919,28 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>3.593271667491395</v>
+        <v>2.803123340718402</v>
       </c>
       <c r="F193" t="n">
-        <v>0.499156961916714</v>
+        <v>0.03943865390090553</v>
       </c>
       <c r="G193" t="n">
-        <v>0.360423623569452</v>
+        <v>0.02408187977673629</v>
       </c>
       <c r="H193" t="n">
-        <v>1.482020228076308</v>
+        <v>1.81430295802515</v>
       </c>
       <c r="I193" t="n">
-        <v>1.53658680459085</v>
+        <v>1.059788567118365</v>
       </c>
       <c r="J193" t="n">
-        <v>-0.3232649229385035</v>
+        <v>-0.6679809951180439</v>
       </c>
       <c r="K193" t="n">
-        <v>0.8622808413763724</v>
+        <v>0.5431322647764099</v>
       </c>
       <c r="L193" t="n">
-        <v>1.62276863944558</v>
+        <v>1.612890859195317</v>
       </c>
     </row>
     <row r="194">
@@ -8963,28 +8963,28 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>1.835858789523565</v>
+        <v>1.220635703796682</v>
       </c>
       <c r="F194" t="n">
-        <v>0.5904940089280066</v>
+        <v>0.1295841485315467</v>
       </c>
       <c r="G194" t="n">
-        <v>1.320340531838964</v>
+        <v>0.8924069709829074</v>
       </c>
       <c r="H194" t="n">
-        <v>-1.008770071211605</v>
+        <v>-1.084864892954859</v>
       </c>
       <c r="I194" t="n">
-        <v>2.239385812498079</v>
+        <v>1.756071087217022</v>
       </c>
       <c r="J194" t="n">
-        <v>1.515879058768518</v>
+        <v>0.8588327080089135</v>
       </c>
       <c r="K194" t="n">
-        <v>0.814266193125422</v>
+        <v>0.4935924097469226</v>
       </c>
       <c r="L194" t="n">
-        <v>-1.361493448482114</v>
+        <v>-1.476923273020025</v>
       </c>
     </row>
     <row r="195">
@@ -9007,28 +9007,28 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>-0.4138337480201606</v>
+        <v>-0.805132214584969</v>
       </c>
       <c r="F195" t="n">
-        <v>-0.5055505552075045</v>
+        <v>-0.9521617870361478</v>
       </c>
       <c r="G195" t="n">
-        <v>-0.7326797254413463</v>
+        <v>-0.9647214812752996</v>
       </c>
       <c r="H195" t="n">
-        <v>-0.1146402201851745</v>
+        <v>-0.04413797209024053</v>
       </c>
       <c r="I195" t="n">
-        <v>0.0724222047841242</v>
+        <v>-0.3908000164205046</v>
       </c>
       <c r="J195" t="n">
-        <v>0.3840981469488125</v>
+        <v>-0.08074495545382948</v>
       </c>
       <c r="K195" t="n">
-        <v>-0.5710453249297746</v>
+        <v>-0.9357241483260619</v>
       </c>
       <c r="L195" t="n">
-        <v>-0.5088471376456304</v>
+        <v>-0.5941192352442127</v>
       </c>
     </row>
     <row r="196">
@@ -9051,28 +9051,28 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>0.1881247994405186</v>
+        <v>-0.2630900051313754</v>
       </c>
       <c r="F196" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G196" t="n">
-        <v>-0.6758318543932363</v>
+        <v>-0.9132978295118207</v>
       </c>
       <c r="H196" t="n">
-        <v>-1.328102160863901</v>
+        <v>-1.456553078977938</v>
       </c>
       <c r="I196" t="n">
-        <v>0.3960796426361372</v>
+        <v>-0.0701435926908598</v>
       </c>
       <c r="J196" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K196" t="n">
-        <v>-0.1406918109768124</v>
+        <v>-0.491700262506213</v>
       </c>
       <c r="L196" t="n">
-        <v>-0.6306537534794138</v>
+        <v>-0.7202340977836144</v>
       </c>
     </row>
     <row r="197">
@@ -9095,28 +9095,28 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>-0.6433942110348265</v>
+        <v>-1.011843226664729</v>
       </c>
       <c r="F197" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G197" t="n">
-        <v>-0.8837326399406096</v>
+        <v>-1.101361470246829</v>
       </c>
       <c r="H197" t="n">
-        <v>-0.3062394739765523</v>
+        <v>-0.2671508837040874</v>
       </c>
       <c r="I197" t="n">
-        <v>-0.4084402743102952</v>
+        <v>-0.8672038459616912</v>
       </c>
       <c r="J197" t="n">
-        <v>-0.04031969498357715</v>
+        <v>-0.4330865792523581</v>
       </c>
       <c r="K197" t="n">
-        <v>-0.7293158321273516</v>
+        <v>-1.099022188978816</v>
       </c>
       <c r="L197" t="n">
-        <v>-1.544203372232789</v>
+        <v>-1.666095566829127</v>
       </c>
     </row>
     <row r="198">
@@ -9139,28 +9139,28 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>0.4916547449821324</v>
+        <v>0.0102278886185298</v>
       </c>
       <c r="F198" t="n">
-        <v>-0.1402023671623341</v>
+        <v>-0.5915798085135829</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2239887330539883</v>
+        <v>-0.09933488445561291</v>
       </c>
       <c r="H198" t="n">
-        <v>-0.4978387277679302</v>
+        <v>-0.4901637953179343</v>
       </c>
       <c r="I198" t="n">
-        <v>0.7413142430116179</v>
+        <v>0.2718899259540947</v>
       </c>
       <c r="J198" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2985533045041036</v>
+        <v>-0.03850232945868137</v>
       </c>
       <c r="L198" t="n">
-        <v>0.3437991731908537</v>
+        <v>0.2886848025315992</v>
       </c>
     </row>
     <row r="199">
@@ -9183,28 +9183,28 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>-0.9061134075960552</v>
+        <v>-1.248412496044899</v>
       </c>
       <c r="F199" t="n">
-        <v>1.41252743202964</v>
+        <v>0.9408936002073177</v>
       </c>
       <c r="G199" t="n">
-        <v>-0.7066921272479246</v>
+        <v>-0.9412135261834236</v>
       </c>
       <c r="H199" t="n">
-        <v>0.2685582873975814</v>
+        <v>0.4018878511374532</v>
       </c>
       <c r="I199" t="n">
-        <v>-0.7536748746857757</v>
+        <v>-1.209237364606646</v>
       </c>
       <c r="J199" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K199" t="n">
-        <v>-0.2189379044228056</v>
+        <v>-0.5724318781098219</v>
       </c>
       <c r="L199" t="n">
-        <v>0.03928263360639516</v>
+        <v>-0.02660235381690505</v>
       </c>
     </row>
     <row r="200">
@@ -9227,28 +9227,28 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>0.4993067604159545</v>
+        <v>0.01711825568785515</v>
       </c>
       <c r="F200" t="n">
-        <v>1.595201526052225</v>
+        <v>1.1211845894686</v>
       </c>
       <c r="G200" t="n">
-        <v>0.6966381751968446</v>
+        <v>0.3282160487778825</v>
       </c>
       <c r="H200" t="n">
-        <v>0.7794896308412558</v>
+        <v>0.9965889487743783</v>
       </c>
       <c r="I200" t="n">
-        <v>0.4669760337846734</v>
+        <v>9.543345944334667e-05</v>
       </c>
       <c r="J200" t="n">
-        <v>0.3840981469488125</v>
+        <v>-0.08074495545382948</v>
       </c>
       <c r="K200" t="n">
-        <v>0.8231577946533758</v>
+        <v>0.5027664569746054</v>
       </c>
       <c r="L200" t="n">
-        <v>0.9528322523597709</v>
+        <v>0.9192591152286077</v>
       </c>
     </row>
     <row r="201">
@@ -9271,28 +9271,28 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>-0.467397856056916</v>
+        <v>-0.8533647840702463</v>
       </c>
       <c r="F201" t="n">
-        <v>-0.9622357902639674</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G201" t="n">
-        <v>-0.4078347480235756</v>
+        <v>-0.6708720426268491</v>
       </c>
       <c r="H201" t="n">
-        <v>1.737485899798145</v>
+        <v>2.111653506843613</v>
       </c>
       <c r="I201" t="n">
-        <v>-0.2635650402241561</v>
+        <v>-0.7236719229588978</v>
       </c>
       <c r="J201" t="n">
-        <v>-0.6062101508934298</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K201" t="n">
-        <v>-0.1904847795333535</v>
+        <v>-0.5430749269812368</v>
       </c>
       <c r="L201" t="n">
-        <v>1.500962023611796</v>
+        <v>1.486775996655915</v>
       </c>
     </row>
   </sheetData>
